--- a/Diversidad Hospital_merge_Hpy.xlsx
+++ b/Diversidad Hospital_merge_Hpy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2877523a2f202806/Escritorio/HOSPITAL/TFM_Hospital/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0772755BF3654DCB84170B576BDFD5C151204620" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46D1568B-DD35-4170-9E1C-7EA867943C23}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_6EC2D656622DCDF0D6170B03A318EF835020F6CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4970B74-D1E5-468E-88C5-49198F52B9A9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1370" yWindow="150" windowWidth="14890" windowHeight="8550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MERGE" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7620" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7620" uniqueCount="1029">
   <si>
     <t>taxlevel</t>
   </si>
@@ -2270,9 +2270,6 @@
   </si>
   <si>
     <t>Armatimonadetes_uncultured</t>
-  </si>
-  <si>
-    <t>uncultured</t>
   </si>
   <si>
     <t>BRC1</t>
@@ -3513,11 +3510,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I274" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
@@ -72020,7 +72017,7 @@
         <v>6</v>
       </c>
       <c r="B908" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="L908">
         <v>4</v>
@@ -72065,7 +72062,7 @@
         <v>749</v>
       </c>
       <c r="AA908" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="909" spans="1:27" x14ac:dyDescent="0.35">
@@ -72073,7 +72070,7 @@
         <v>2</v>
       </c>
       <c r="B909" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="L909">
         <v>2</v>
@@ -72106,7 +72103,7 @@
         <v>28</v>
       </c>
       <c r="W909" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="910" spans="1:27" x14ac:dyDescent="0.35">
@@ -72114,7 +72111,7 @@
         <v>3</v>
       </c>
       <c r="B910" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L910">
         <v>2</v>
@@ -72147,10 +72144,10 @@
         <v>28</v>
       </c>
       <c r="W910" t="s">
+        <v>750</v>
+      </c>
+      <c r="X910" t="s">
         <v>751</v>
-      </c>
-      <c r="X910" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="911" spans="1:27" x14ac:dyDescent="0.35">
@@ -72158,7 +72155,7 @@
         <v>4</v>
       </c>
       <c r="B911" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L911">
         <v>2</v>
@@ -72191,13 +72188,13 @@
         <v>28</v>
       </c>
       <c r="W911" t="s">
+        <v>750</v>
+      </c>
+      <c r="X911" t="s">
         <v>751</v>
       </c>
-      <c r="X911" t="s">
+      <c r="Y911" t="s">
         <v>752</v>
-      </c>
-      <c r="Y911" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="912" spans="1:27" x14ac:dyDescent="0.35">
@@ -72205,7 +72202,7 @@
         <v>5</v>
       </c>
       <c r="B912" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L912">
         <v>2</v>
@@ -72238,16 +72235,16 @@
         <v>28</v>
       </c>
       <c r="W912" t="s">
+        <v>750</v>
+      </c>
+      <c r="X912" t="s">
         <v>751</v>
       </c>
-      <c r="X912" t="s">
+      <c r="Y912" t="s">
         <v>752</v>
       </c>
-      <c r="Y912" t="s">
+      <c r="Z912" t="s">
         <v>753</v>
-      </c>
-      <c r="Z912" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="913" spans="1:27" x14ac:dyDescent="0.35">
@@ -72255,7 +72252,7 @@
         <v>6</v>
       </c>
       <c r="B913" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L913">
         <v>2</v>
@@ -72288,19 +72285,19 @@
         <v>28</v>
       </c>
       <c r="W913" t="s">
+        <v>750</v>
+      </c>
+      <c r="X913" t="s">
         <v>751</v>
       </c>
-      <c r="X913" t="s">
+      <c r="Y913" t="s">
         <v>752</v>
       </c>
-      <c r="Y913" t="s">
+      <c r="Z913" t="s">
         <v>753</v>
       </c>
-      <c r="Z913" t="s">
+      <c r="AA913" t="s">
         <v>754</v>
-      </c>
-      <c r="AA913" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="914" spans="1:27" x14ac:dyDescent="0.35">
@@ -72308,7 +72305,7 @@
         <v>5</v>
       </c>
       <c r="B914" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L914">
         <v>4</v>
@@ -72350,7 +72347,7 @@
         <v>191</v>
       </c>
       <c r="Z914" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="915" spans="1:27" x14ac:dyDescent="0.35">
@@ -72358,7 +72355,7 @@
         <v>6</v>
       </c>
       <c r="B915" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="L915">
         <v>4</v>
@@ -72400,10 +72397,10 @@
         <v>191</v>
       </c>
       <c r="Z915" t="s">
+        <v>755</v>
+      </c>
+      <c r="AA915" t="s">
         <v>756</v>
-      </c>
-      <c r="AA915" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="916" spans="1:27" x14ac:dyDescent="0.35">
@@ -72411,7 +72408,7 @@
         <v>5</v>
       </c>
       <c r="B916" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="L916">
         <v>0</v>
@@ -72453,7 +72450,7 @@
         <v>191</v>
       </c>
       <c r="Z916" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="917" spans="1:27" x14ac:dyDescent="0.35">
@@ -72461,7 +72458,7 @@
         <v>6</v>
       </c>
       <c r="B917" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="L917">
         <v>0</v>
@@ -72503,10 +72500,10 @@
         <v>191</v>
       </c>
       <c r="Z917" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA917" t="s">
         <v>758</v>
-      </c>
-      <c r="AA917" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="918" spans="1:27" x14ac:dyDescent="0.35">
@@ -72514,7 +72511,7 @@
         <v>5</v>
       </c>
       <c r="B918" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L918">
         <v>19</v>
@@ -72556,7 +72553,7 @@
         <v>191</v>
       </c>
       <c r="Z918" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="919" spans="1:27" x14ac:dyDescent="0.35">
@@ -72564,7 +72561,7 @@
         <v>6</v>
       </c>
       <c r="B919" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L919">
         <v>19</v>
@@ -72606,10 +72603,10 @@
         <v>191</v>
       </c>
       <c r="Z919" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA919" t="s">
         <v>760</v>
-      </c>
-      <c r="AA919" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="920" spans="1:27" x14ac:dyDescent="0.35">
@@ -72617,7 +72614,7 @@
         <v>6</v>
       </c>
       <c r="B920" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L920">
         <v>1</v>
@@ -72662,7 +72659,7 @@
         <v>199</v>
       </c>
       <c r="AA920" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="921" spans="1:27" x14ac:dyDescent="0.35">
@@ -72670,7 +72667,7 @@
         <v>6</v>
       </c>
       <c r="B921" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L921">
         <v>0</v>
@@ -72715,7 +72712,7 @@
         <v>199</v>
       </c>
       <c r="AA921" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="922" spans="1:27" x14ac:dyDescent="0.35">
@@ -72723,7 +72720,7 @@
         <v>6</v>
       </c>
       <c r="B922" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L922">
         <v>1</v>
@@ -72768,7 +72765,7 @@
         <v>199</v>
       </c>
       <c r="AA922" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="923" spans="1:27" x14ac:dyDescent="0.35">
@@ -72776,7 +72773,7 @@
         <v>6</v>
       </c>
       <c r="B923" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L923">
         <v>0</v>
@@ -72821,7 +72818,7 @@
         <v>199</v>
       </c>
       <c r="AA923" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="924" spans="1:27" x14ac:dyDescent="0.35">
@@ -72829,7 +72826,7 @@
         <v>6</v>
       </c>
       <c r="B924" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L924">
         <v>0</v>
@@ -72874,7 +72871,7 @@
         <v>201</v>
       </c>
       <c r="AA924" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="925" spans="1:27" x14ac:dyDescent="0.35">
@@ -72882,7 +72879,7 @@
         <v>5</v>
       </c>
       <c r="B925" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L925">
         <v>0</v>
@@ -72924,7 +72921,7 @@
         <v>191</v>
       </c>
       <c r="Z925" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="926" spans="1:27" x14ac:dyDescent="0.35">
@@ -72932,7 +72929,7 @@
         <v>6</v>
       </c>
       <c r="B926" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L926">
         <v>0</v>
@@ -72974,10 +72971,10 @@
         <v>191</v>
       </c>
       <c r="Z926" t="s">
+        <v>766</v>
+      </c>
+      <c r="AA926" t="s">
         <v>767</v>
-      </c>
-      <c r="AA926" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="927" spans="1:27" x14ac:dyDescent="0.35">
@@ -72985,7 +72982,7 @@
         <v>5</v>
       </c>
       <c r="B927" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L927">
         <v>4</v>
@@ -73027,7 +73024,7 @@
         <v>191</v>
       </c>
       <c r="Z927" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="928" spans="1:27" x14ac:dyDescent="0.35">
@@ -73035,7 +73032,7 @@
         <v>6</v>
       </c>
       <c r="B928" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L928">
         <v>1</v>
@@ -73077,10 +73074,10 @@
         <v>191</v>
       </c>
       <c r="Z928" t="s">
+        <v>768</v>
+      </c>
+      <c r="AA928" t="s">
         <v>769</v>
-      </c>
-      <c r="AA928" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="929" spans="1:27" x14ac:dyDescent="0.35">
@@ -73088,7 +73085,7 @@
         <v>6</v>
       </c>
       <c r="B929" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L929">
         <v>1</v>
@@ -73130,10 +73127,10 @@
         <v>191</v>
       </c>
       <c r="Z929" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AA929" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="930" spans="1:27" x14ac:dyDescent="0.35">
@@ -73141,7 +73138,7 @@
         <v>6</v>
       </c>
       <c r="B930" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L930">
         <v>2</v>
@@ -73183,10 +73180,10 @@
         <v>191</v>
       </c>
       <c r="Z930" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AA930" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="931" spans="1:27" x14ac:dyDescent="0.35">
@@ -73194,7 +73191,7 @@
         <v>6</v>
       </c>
       <c r="B931" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L931">
         <v>8</v>
@@ -73239,7 +73236,7 @@
         <v>205</v>
       </c>
       <c r="AA931" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="932" spans="1:27" x14ac:dyDescent="0.35">
@@ -73247,7 +73244,7 @@
         <v>6</v>
       </c>
       <c r="B932" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L932">
         <v>1</v>
@@ -73292,7 +73289,7 @@
         <v>205</v>
       </c>
       <c r="AA932" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="933" spans="1:27" x14ac:dyDescent="0.35">
@@ -73300,7 +73297,7 @@
         <v>6</v>
       </c>
       <c r="B933" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L933">
         <v>1</v>
@@ -73345,7 +73342,7 @@
         <v>205</v>
       </c>
       <c r="AA933" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="934" spans="1:27" x14ac:dyDescent="0.35">
@@ -73353,7 +73350,7 @@
         <v>6</v>
       </c>
       <c r="B934" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L934">
         <v>11</v>
@@ -73398,7 +73395,7 @@
         <v>205</v>
       </c>
       <c r="AA934" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="935" spans="1:27" x14ac:dyDescent="0.35">
@@ -73406,7 +73403,7 @@
         <v>6</v>
       </c>
       <c r="B935" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="L935">
         <v>3</v>
@@ -73451,7 +73448,7 @@
         <v>205</v>
       </c>
       <c r="AA935" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="936" spans="1:27" x14ac:dyDescent="0.35">
@@ -73459,7 +73456,7 @@
         <v>6</v>
       </c>
       <c r="B936" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="L936">
         <v>0</v>
@@ -73504,7 +73501,7 @@
         <v>205</v>
       </c>
       <c r="AA936" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="937" spans="1:27" x14ac:dyDescent="0.35">
@@ -73512,7 +73509,7 @@
         <v>6</v>
       </c>
       <c r="B937" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L937">
         <v>2</v>
@@ -73557,7 +73554,7 @@
         <v>205</v>
       </c>
       <c r="AA937" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="938" spans="1:27" x14ac:dyDescent="0.35">
@@ -73565,7 +73562,7 @@
         <v>5</v>
       </c>
       <c r="B938" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L938">
         <v>14</v>
@@ -73607,7 +73604,7 @@
         <v>204</v>
       </c>
       <c r="Z938" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="939" spans="1:27" x14ac:dyDescent="0.35">
@@ -73615,7 +73612,7 @@
         <v>6</v>
       </c>
       <c r="B939" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L939">
         <v>14</v>
@@ -73657,10 +73654,10 @@
         <v>204</v>
       </c>
       <c r="Z939" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AA939" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="940" spans="1:27" x14ac:dyDescent="0.35">
@@ -73668,7 +73665,7 @@
         <v>6</v>
       </c>
       <c r="B940" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L940">
         <v>0</v>
@@ -73713,7 +73710,7 @@
         <v>209</v>
       </c>
       <c r="AA940" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="941" spans="1:27" x14ac:dyDescent="0.35">
@@ -73774,7 +73771,7 @@
         <v>6</v>
       </c>
       <c r="B942" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L942">
         <v>10</v>
@@ -73819,7 +73816,7 @@
         <v>221</v>
       </c>
       <c r="AA942" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="943" spans="1:27" x14ac:dyDescent="0.35">
@@ -73827,7 +73824,7 @@
         <v>6</v>
       </c>
       <c r="B943" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L943">
         <v>0</v>
@@ -73872,7 +73869,7 @@
         <v>221</v>
       </c>
       <c r="AA943" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="944" spans="1:27" x14ac:dyDescent="0.35">
@@ -73880,7 +73877,7 @@
         <v>5</v>
       </c>
       <c r="B944" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L944">
         <v>0</v>
@@ -73922,7 +73919,7 @@
         <v>220</v>
       </c>
       <c r="Z944" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="945" spans="1:27" x14ac:dyDescent="0.35">
@@ -73930,7 +73927,7 @@
         <v>6</v>
       </c>
       <c r="B945" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L945">
         <v>0</v>
@@ -73972,10 +73969,10 @@
         <v>220</v>
       </c>
       <c r="Z945" t="s">
+        <v>782</v>
+      </c>
+      <c r="AA945" t="s">
         <v>783</v>
-      </c>
-      <c r="AA945" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="946" spans="1:27" x14ac:dyDescent="0.35">
@@ -73983,7 +73980,7 @@
         <v>6</v>
       </c>
       <c r="B946" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L946">
         <v>11</v>
@@ -74028,7 +74025,7 @@
         <v>226</v>
       </c>
       <c r="AA946" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="947" spans="1:27" x14ac:dyDescent="0.35">
@@ -74036,7 +74033,7 @@
         <v>6</v>
       </c>
       <c r="B947" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L947">
         <v>0</v>
@@ -74081,7 +74078,7 @@
         <v>226</v>
       </c>
       <c r="AA947" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="948" spans="1:27" x14ac:dyDescent="0.35">
@@ -74089,7 +74086,7 @@
         <v>6</v>
       </c>
       <c r="B948" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L948">
         <v>0</v>
@@ -74134,7 +74131,7 @@
         <v>229</v>
       </c>
       <c r="AA948" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="949" spans="1:27" x14ac:dyDescent="0.35">
@@ -74142,7 +74139,7 @@
         <v>5</v>
       </c>
       <c r="B949" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L949">
         <v>2</v>
@@ -74184,7 +74181,7 @@
         <v>228</v>
       </c>
       <c r="Z949" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="950" spans="1:27" x14ac:dyDescent="0.35">
@@ -74192,7 +74189,7 @@
         <v>6</v>
       </c>
       <c r="B950" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L950">
         <v>2</v>
@@ -74234,10 +74231,10 @@
         <v>228</v>
       </c>
       <c r="Z950" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AA950" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="951" spans="1:27" x14ac:dyDescent="0.35">
@@ -74245,7 +74242,7 @@
         <v>3</v>
       </c>
       <c r="B951" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L951">
         <v>0</v>
@@ -74281,7 +74278,7 @@
         <v>188</v>
       </c>
       <c r="X951" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="952" spans="1:27" x14ac:dyDescent="0.35">
@@ -74289,7 +74286,7 @@
         <v>4</v>
       </c>
       <c r="B952" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L952">
         <v>0</v>
@@ -74325,10 +74322,10 @@
         <v>188</v>
       </c>
       <c r="X952" t="s">
+        <v>788</v>
+      </c>
+      <c r="Y952" t="s">
         <v>789</v>
-      </c>
-      <c r="Y952" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="953" spans="1:27" x14ac:dyDescent="0.35">
@@ -74336,7 +74333,7 @@
         <v>5</v>
       </c>
       <c r="B953" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L953">
         <v>0</v>
@@ -74372,13 +74369,13 @@
         <v>188</v>
       </c>
       <c r="X953" t="s">
+        <v>788</v>
+      </c>
+      <c r="Y953" t="s">
         <v>789</v>
       </c>
-      <c r="Y953" t="s">
+      <c r="Z953" t="s">
         <v>790</v>
-      </c>
-      <c r="Z953" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="954" spans="1:27" x14ac:dyDescent="0.35">
@@ -74386,7 +74383,7 @@
         <v>6</v>
       </c>
       <c r="B954" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L954">
         <v>0</v>
@@ -74422,16 +74419,16 @@
         <v>188</v>
       </c>
       <c r="X954" t="s">
+        <v>788</v>
+      </c>
+      <c r="Y954" t="s">
         <v>789</v>
       </c>
-      <c r="Y954" t="s">
+      <c r="Z954" t="s">
         <v>790</v>
       </c>
-      <c r="Z954" t="s">
+      <c r="AA954" t="s">
         <v>791</v>
-      </c>
-      <c r="AA954" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="955" spans="1:27" x14ac:dyDescent="0.35">
@@ -74439,7 +74436,7 @@
         <v>6</v>
       </c>
       <c r="B955" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="L955">
         <v>0</v>
@@ -74484,7 +74481,7 @@
         <v>247</v>
       </c>
       <c r="AA955" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="956" spans="1:27" x14ac:dyDescent="0.35">
@@ -74492,7 +74489,7 @@
         <v>4</v>
       </c>
       <c r="B956" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L956">
         <v>3</v>
@@ -74531,7 +74528,7 @@
         <v>244</v>
       </c>
       <c r="Y956" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="957" spans="1:27" x14ac:dyDescent="0.35">
@@ -74539,7 +74536,7 @@
         <v>5</v>
       </c>
       <c r="B957" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="L957">
         <v>3</v>
@@ -74578,10 +74575,10 @@
         <v>244</v>
       </c>
       <c r="Y957" t="s">
+        <v>793</v>
+      </c>
+      <c r="Z957" t="s">
         <v>794</v>
-      </c>
-      <c r="Z957" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="958" spans="1:27" x14ac:dyDescent="0.35">
@@ -74589,7 +74586,7 @@
         <v>6</v>
       </c>
       <c r="B958" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="L958">
         <v>3</v>
@@ -74628,13 +74625,13 @@
         <v>244</v>
       </c>
       <c r="Y958" t="s">
+        <v>793</v>
+      </c>
+      <c r="Z958" t="s">
         <v>794</v>
       </c>
-      <c r="Z958" t="s">
+      <c r="AA958" t="s">
         <v>795</v>
-      </c>
-      <c r="AA958" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="959" spans="1:27" x14ac:dyDescent="0.35">
@@ -74642,7 +74639,7 @@
         <v>5</v>
       </c>
       <c r="B959" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="L959">
         <v>0</v>
@@ -74684,7 +74681,7 @@
         <v>253</v>
       </c>
       <c r="Z959" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="960" spans="1:27" x14ac:dyDescent="0.35">
@@ -74692,7 +74689,7 @@
         <v>6</v>
       </c>
       <c r="B960" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="L960">
         <v>0</v>
@@ -74734,10 +74731,10 @@
         <v>253</v>
       </c>
       <c r="Z960" t="s">
+        <v>796</v>
+      </c>
+      <c r="AA960" t="s">
         <v>797</v>
-      </c>
-      <c r="AA960" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="961" spans="1:27" x14ac:dyDescent="0.35">
@@ -74745,7 +74742,7 @@
         <v>3</v>
       </c>
       <c r="B961" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="L961">
         <v>1</v>
@@ -74781,7 +74778,7 @@
         <v>243</v>
       </c>
       <c r="X961" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="962" spans="1:27" x14ac:dyDescent="0.35">
@@ -74789,7 +74786,7 @@
         <v>4</v>
       </c>
       <c r="B962" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L962">
         <v>1</v>
@@ -74825,10 +74822,10 @@
         <v>243</v>
       </c>
       <c r="X962" t="s">
+        <v>798</v>
+      </c>
+      <c r="Y962" t="s">
         <v>799</v>
-      </c>
-      <c r="Y962" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="963" spans="1:27" x14ac:dyDescent="0.35">
@@ -74836,7 +74833,7 @@
         <v>5</v>
       </c>
       <c r="B963" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L963">
         <v>1</v>
@@ -74872,13 +74869,13 @@
         <v>243</v>
       </c>
       <c r="X963" t="s">
+        <v>798</v>
+      </c>
+      <c r="Y963" t="s">
         <v>799</v>
       </c>
-      <c r="Y963" t="s">
+      <c r="Z963" t="s">
         <v>800</v>
-      </c>
-      <c r="Z963" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="964" spans="1:27" x14ac:dyDescent="0.35">
@@ -74886,7 +74883,7 @@
         <v>6</v>
       </c>
       <c r="B964" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L964">
         <v>1</v>
@@ -74922,16 +74919,16 @@
         <v>243</v>
       </c>
       <c r="X964" t="s">
+        <v>798</v>
+      </c>
+      <c r="Y964" t="s">
         <v>799</v>
       </c>
-      <c r="Y964" t="s">
+      <c r="Z964" t="s">
         <v>800</v>
       </c>
-      <c r="Z964" t="s">
+      <c r="AA964" t="s">
         <v>801</v>
-      </c>
-      <c r="AA964" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="965" spans="1:27" x14ac:dyDescent="0.35">
@@ -74939,7 +74936,7 @@
         <v>5</v>
       </c>
       <c r="B965" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L965">
         <v>0</v>
@@ -74981,7 +74978,7 @@
         <v>271</v>
       </c>
       <c r="Z965" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="966" spans="1:27" x14ac:dyDescent="0.35">
@@ -74989,7 +74986,7 @@
         <v>6</v>
       </c>
       <c r="B966" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L966">
         <v>0</v>
@@ -75031,10 +75028,10 @@
         <v>271</v>
       </c>
       <c r="Z966" t="s">
+        <v>802</v>
+      </c>
+      <c r="AA966" t="s">
         <v>803</v>
-      </c>
-      <c r="AA966" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="967" spans="1:27" x14ac:dyDescent="0.35">
@@ -75042,7 +75039,7 @@
         <v>5</v>
       </c>
       <c r="B967" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L967">
         <v>0</v>
@@ -75084,7 +75081,7 @@
         <v>271</v>
       </c>
       <c r="Z967" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="968" spans="1:27" x14ac:dyDescent="0.35">
@@ -75092,7 +75089,7 @@
         <v>6</v>
       </c>
       <c r="B968" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L968">
         <v>0</v>
@@ -75134,10 +75131,10 @@
         <v>271</v>
       </c>
       <c r="Z968" t="s">
+        <v>804</v>
+      </c>
+      <c r="AA968" t="s">
         <v>805</v>
-      </c>
-      <c r="AA968" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="969" spans="1:27" x14ac:dyDescent="0.35">
@@ -75145,7 +75142,7 @@
         <v>6</v>
       </c>
       <c r="B969" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L969">
         <v>0</v>
@@ -75187,10 +75184,10 @@
         <v>271</v>
       </c>
       <c r="Z969" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AA969" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="970" spans="1:27" x14ac:dyDescent="0.35">
@@ -75198,7 +75195,7 @@
         <v>6</v>
       </c>
       <c r="B970" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L970">
         <v>0</v>
@@ -75243,7 +75240,7 @@
         <v>272</v>
       </c>
       <c r="AA970" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="971" spans="1:27" x14ac:dyDescent="0.35">
@@ -75251,7 +75248,7 @@
         <v>5</v>
       </c>
       <c r="B971" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L971">
         <v>0</v>
@@ -75293,7 +75290,7 @@
         <v>271</v>
       </c>
       <c r="Z971" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="972" spans="1:27" x14ac:dyDescent="0.35">
@@ -75301,7 +75298,7 @@
         <v>6</v>
       </c>
       <c r="B972" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L972">
         <v>0</v>
@@ -75343,10 +75340,10 @@
         <v>271</v>
       </c>
       <c r="Z972" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AA972" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="973" spans="1:27" x14ac:dyDescent="0.35">
@@ -75354,7 +75351,7 @@
         <v>5</v>
       </c>
       <c r="B973" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L973">
         <v>14</v>
@@ -75396,7 +75393,7 @@
         <v>277</v>
       </c>
       <c r="Z973" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="974" spans="1:27" x14ac:dyDescent="0.35">
@@ -75404,7 +75401,7 @@
         <v>6</v>
       </c>
       <c r="B974" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="L974">
         <v>14</v>
@@ -75446,10 +75443,10 @@
         <v>277</v>
       </c>
       <c r="Z974" t="s">
+        <v>808</v>
+      </c>
+      <c r="AA974" t="s">
         <v>809</v>
-      </c>
-      <c r="AA974" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="975" spans="1:27" x14ac:dyDescent="0.35">
@@ -75457,7 +75454,7 @@
         <v>4</v>
       </c>
       <c r="B975" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="L975">
         <v>0</v>
@@ -75496,7 +75493,7 @@
         <v>276</v>
       </c>
       <c r="Y975" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="976" spans="1:27" x14ac:dyDescent="0.35">
@@ -75504,7 +75501,7 @@
         <v>5</v>
       </c>
       <c r="B976" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L976">
         <v>0</v>
@@ -75543,10 +75540,10 @@
         <v>276</v>
       </c>
       <c r="Y976" t="s">
+        <v>810</v>
+      </c>
+      <c r="Z976" t="s">
         <v>811</v>
-      </c>
-      <c r="Z976" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="977" spans="1:27" x14ac:dyDescent="0.35">
@@ -75554,7 +75551,7 @@
         <v>6</v>
       </c>
       <c r="B977" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="L977">
         <v>0</v>
@@ -75593,13 +75590,13 @@
         <v>276</v>
       </c>
       <c r="Y977" t="s">
+        <v>810</v>
+      </c>
+      <c r="Z977" t="s">
         <v>811</v>
       </c>
-      <c r="Z977" t="s">
+      <c r="AA977" t="s">
         <v>812</v>
-      </c>
-      <c r="AA977" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="978" spans="1:27" x14ac:dyDescent="0.35">
@@ -75607,7 +75604,7 @@
         <v>5</v>
       </c>
       <c r="B978" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="L978">
         <v>0</v>
@@ -75649,7 +75646,7 @@
         <v>282</v>
       </c>
       <c r="Z978" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="979" spans="1:27" x14ac:dyDescent="0.35">
@@ -75657,7 +75654,7 @@
         <v>6</v>
       </c>
       <c r="B979" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="L979">
         <v>0</v>
@@ -75699,10 +75696,10 @@
         <v>282</v>
       </c>
       <c r="Z979" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AA979" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="980" spans="1:27" x14ac:dyDescent="0.35">
@@ -75710,7 +75707,7 @@
         <v>2</v>
       </c>
       <c r="B980" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="L980">
         <v>0</v>
@@ -75743,7 +75740,7 @@
         <v>28</v>
       </c>
       <c r="W980" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="981" spans="1:27" x14ac:dyDescent="0.35">
@@ -75751,7 +75748,7 @@
         <v>3</v>
       </c>
       <c r="B981" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L981">
         <v>0</v>
@@ -75784,10 +75781,10 @@
         <v>28</v>
       </c>
       <c r="W981" t="s">
+        <v>814</v>
+      </c>
+      <c r="X981" t="s">
         <v>815</v>
-      </c>
-      <c r="X981" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="982" spans="1:27" x14ac:dyDescent="0.35">
@@ -75795,7 +75792,7 @@
         <v>4</v>
       </c>
       <c r="B982" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="L982">
         <v>0</v>
@@ -75828,13 +75825,13 @@
         <v>28</v>
       </c>
       <c r="W982" t="s">
+        <v>814</v>
+      </c>
+      <c r="X982" t="s">
         <v>815</v>
       </c>
-      <c r="X982" t="s">
+      <c r="Y982" t="s">
         <v>816</v>
-      </c>
-      <c r="Y982" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="983" spans="1:27" x14ac:dyDescent="0.35">
@@ -75842,7 +75839,7 @@
         <v>5</v>
       </c>
       <c r="B983" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L983">
         <v>0</v>
@@ -75875,16 +75872,16 @@
         <v>28</v>
       </c>
       <c r="W983" t="s">
+        <v>814</v>
+      </c>
+      <c r="X983" t="s">
         <v>815</v>
       </c>
-      <c r="X983" t="s">
+      <c r="Y983" t="s">
         <v>816</v>
       </c>
-      <c r="Y983" t="s">
+      <c r="Z983" t="s">
         <v>817</v>
-      </c>
-      <c r="Z983" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="984" spans="1:27" x14ac:dyDescent="0.35">
@@ -75892,7 +75889,7 @@
         <v>6</v>
       </c>
       <c r="B984" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L984">
         <v>0</v>
@@ -75925,19 +75922,19 @@
         <v>28</v>
       </c>
       <c r="W984" t="s">
+        <v>814</v>
+      </c>
+      <c r="X984" t="s">
         <v>815</v>
       </c>
-      <c r="X984" t="s">
+      <c r="Y984" t="s">
         <v>816</v>
       </c>
-      <c r="Y984" t="s">
+      <c r="Z984" t="s">
         <v>817</v>
       </c>
-      <c r="Z984" t="s">
+      <c r="AA984" t="s">
         <v>818</v>
-      </c>
-      <c r="AA984" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="985" spans="1:27" x14ac:dyDescent="0.35">
@@ -75945,7 +75942,7 @@
         <v>2</v>
       </c>
       <c r="B985" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L985">
         <v>11</v>
@@ -75978,7 +75975,7 @@
         <v>28</v>
       </c>
       <c r="W985" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="986" spans="1:27" x14ac:dyDescent="0.35">
@@ -75986,7 +75983,7 @@
         <v>3</v>
       </c>
       <c r="B986" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L986">
         <v>11</v>
@@ -76019,10 +76016,10 @@
         <v>28</v>
       </c>
       <c r="W986" t="s">
+        <v>819</v>
+      </c>
+      <c r="X986" t="s">
         <v>820</v>
-      </c>
-      <c r="X986" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="987" spans="1:27" x14ac:dyDescent="0.35">
@@ -76030,7 +76027,7 @@
         <v>4</v>
       </c>
       <c r="B987" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="L987">
         <v>11</v>
@@ -76063,13 +76060,13 @@
         <v>28</v>
       </c>
       <c r="W987" t="s">
+        <v>819</v>
+      </c>
+      <c r="X987" t="s">
         <v>820</v>
       </c>
-      <c r="X987" t="s">
+      <c r="Y987" t="s">
         <v>821</v>
-      </c>
-      <c r="Y987" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="988" spans="1:27" x14ac:dyDescent="0.35">
@@ -76077,7 +76074,7 @@
         <v>5</v>
       </c>
       <c r="B988" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="L988">
         <v>0</v>
@@ -76110,16 +76107,16 @@
         <v>28</v>
       </c>
       <c r="W988" t="s">
+        <v>819</v>
+      </c>
+      <c r="X988" t="s">
         <v>820</v>
       </c>
-      <c r="X988" t="s">
+      <c r="Y988" t="s">
         <v>821</v>
       </c>
-      <c r="Y988" t="s">
+      <c r="Z988" t="s">
         <v>822</v>
-      </c>
-      <c r="Z988" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="989" spans="1:27" x14ac:dyDescent="0.35">
@@ -76127,7 +76124,7 @@
         <v>6</v>
       </c>
       <c r="B989" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L989">
         <v>0</v>
@@ -76160,19 +76157,19 @@
         <v>28</v>
       </c>
       <c r="W989" t="s">
+        <v>819</v>
+      </c>
+      <c r="X989" t="s">
         <v>820</v>
       </c>
-      <c r="X989" t="s">
+      <c r="Y989" t="s">
         <v>821</v>
       </c>
-      <c r="Y989" t="s">
+      <c r="Z989" t="s">
         <v>822</v>
       </c>
-      <c r="Z989" t="s">
+      <c r="AA989" t="s">
         <v>823</v>
-      </c>
-      <c r="AA989" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="990" spans="1:27" x14ac:dyDescent="0.35">
@@ -76180,7 +76177,7 @@
         <v>5</v>
       </c>
       <c r="B990" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="L990">
         <v>11</v>
@@ -76213,16 +76210,16 @@
         <v>28</v>
       </c>
       <c r="W990" t="s">
+        <v>819</v>
+      </c>
+      <c r="X990" t="s">
         <v>820</v>
       </c>
-      <c r="X990" t="s">
+      <c r="Y990" t="s">
         <v>821</v>
       </c>
-      <c r="Y990" t="s">
-        <v>822</v>
-      </c>
       <c r="Z990" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="991" spans="1:27" x14ac:dyDescent="0.35">
@@ -76230,7 +76227,7 @@
         <v>6</v>
       </c>
       <c r="B991" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="L991">
         <v>11</v>
@@ -76263,19 +76260,19 @@
         <v>28</v>
       </c>
       <c r="W991" t="s">
+        <v>819</v>
+      </c>
+      <c r="X991" t="s">
         <v>820</v>
       </c>
-      <c r="X991" t="s">
+      <c r="Y991" t="s">
         <v>821</v>
       </c>
-      <c r="Y991" t="s">
-        <v>822</v>
-      </c>
       <c r="Z991" t="s">
+        <v>824</v>
+      </c>
+      <c r="AA991" t="s">
         <v>825</v>
-      </c>
-      <c r="AA991" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="992" spans="1:27" x14ac:dyDescent="0.35">
@@ -76283,7 +76280,7 @@
         <v>5</v>
       </c>
       <c r="B992" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="L992">
         <v>0</v>
@@ -76316,16 +76313,16 @@
         <v>28</v>
       </c>
       <c r="W992" t="s">
+        <v>819</v>
+      </c>
+      <c r="X992" t="s">
         <v>820</v>
       </c>
-      <c r="X992" t="s">
+      <c r="Y992" t="s">
         <v>821</v>
       </c>
-      <c r="Y992" t="s">
-        <v>822</v>
-      </c>
       <c r="Z992" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="993" spans="1:27" x14ac:dyDescent="0.35">
@@ -76333,7 +76330,7 @@
         <v>6</v>
       </c>
       <c r="B993" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L993">
         <v>0</v>
@@ -76366,19 +76363,19 @@
         <v>28</v>
       </c>
       <c r="W993" t="s">
+        <v>819</v>
+      </c>
+      <c r="X993" t="s">
         <v>820</v>
       </c>
-      <c r="X993" t="s">
+      <c r="Y993" t="s">
         <v>821</v>
       </c>
-      <c r="Y993" t="s">
-        <v>822</v>
-      </c>
       <c r="Z993" t="s">
+        <v>826</v>
+      </c>
+      <c r="AA993" t="s">
         <v>827</v>
-      </c>
-      <c r="AA993" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="994" spans="1:27" x14ac:dyDescent="0.35">
@@ -76386,7 +76383,7 @@
         <v>2</v>
       </c>
       <c r="B994" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L994">
         <v>0</v>
@@ -76419,7 +76416,7 @@
         <v>28</v>
       </c>
       <c r="W994" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="995" spans="1:27" x14ac:dyDescent="0.35">
@@ -76427,7 +76424,7 @@
         <v>3</v>
       </c>
       <c r="B995" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L995">
         <v>0</v>
@@ -76460,10 +76457,10 @@
         <v>28</v>
       </c>
       <c r="W995" t="s">
+        <v>828</v>
+      </c>
+      <c r="X995" t="s">
         <v>829</v>
-      </c>
-      <c r="X995" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="996" spans="1:27" x14ac:dyDescent="0.35">
@@ -76471,7 +76468,7 @@
         <v>4</v>
       </c>
       <c r="B996" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L996">
         <v>0</v>
@@ -76504,13 +76501,13 @@
         <v>28</v>
       </c>
       <c r="W996" t="s">
+        <v>828</v>
+      </c>
+      <c r="X996" t="s">
         <v>829</v>
       </c>
-      <c r="X996" t="s">
+      <c r="Y996" t="s">
         <v>830</v>
-      </c>
-      <c r="Y996" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="997" spans="1:27" x14ac:dyDescent="0.35">
@@ -76518,7 +76515,7 @@
         <v>5</v>
       </c>
       <c r="B997" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="L997">
         <v>0</v>
@@ -76551,16 +76548,16 @@
         <v>28</v>
       </c>
       <c r="W997" t="s">
+        <v>828</v>
+      </c>
+      <c r="X997" t="s">
         <v>829</v>
       </c>
-      <c r="X997" t="s">
+      <c r="Y997" t="s">
         <v>830</v>
       </c>
-      <c r="Y997" t="s">
+      <c r="Z997" t="s">
         <v>831</v>
-      </c>
-      <c r="Z997" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="998" spans="1:27" x14ac:dyDescent="0.35">
@@ -76568,7 +76565,7 @@
         <v>6</v>
       </c>
       <c r="B998" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="L998">
         <v>0</v>
@@ -76601,19 +76598,19 @@
         <v>28</v>
       </c>
       <c r="W998" t="s">
+        <v>828</v>
+      </c>
+      <c r="X998" t="s">
         <v>829</v>
       </c>
-      <c r="X998" t="s">
+      <c r="Y998" t="s">
         <v>830</v>
       </c>
-      <c r="Y998" t="s">
+      <c r="Z998" t="s">
         <v>831</v>
       </c>
-      <c r="Z998" t="s">
+      <c r="AA998" t="s">
         <v>832</v>
-      </c>
-      <c r="AA998" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="999" spans="1:27" x14ac:dyDescent="0.35">
@@ -76621,7 +76618,7 @@
         <v>6</v>
       </c>
       <c r="B999" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L999">
         <v>1</v>
@@ -76666,7 +76663,7 @@
         <v>297</v>
       </c>
       <c r="AA999" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1000" spans="1:27" x14ac:dyDescent="0.35">
@@ -76727,7 +76724,7 @@
         <v>6</v>
       </c>
       <c r="B1001" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L1001">
         <v>0</v>
@@ -76772,7 +76769,7 @@
         <v>299</v>
       </c>
       <c r="AA1001" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1002" spans="1:27" x14ac:dyDescent="0.35">
@@ -76780,7 +76777,7 @@
         <v>6</v>
       </c>
       <c r="B1002" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="L1002">
         <v>4</v>
@@ -76825,7 +76822,7 @@
         <v>299</v>
       </c>
       <c r="AA1002" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1003" spans="1:27" x14ac:dyDescent="0.35">
@@ -76833,7 +76830,7 @@
         <v>6</v>
       </c>
       <c r="B1003" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="L1003">
         <v>2</v>
@@ -76878,7 +76875,7 @@
         <v>299</v>
       </c>
       <c r="AA1003" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1004" spans="1:27" x14ac:dyDescent="0.35">
@@ -76886,7 +76883,7 @@
         <v>6</v>
       </c>
       <c r="B1004" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="L1004">
         <v>3</v>
@@ -76931,7 +76928,7 @@
         <v>308</v>
       </c>
       <c r="AA1004" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1005" spans="1:27" x14ac:dyDescent="0.35">
@@ -76939,7 +76936,7 @@
         <v>6</v>
       </c>
       <c r="B1005" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L1005">
         <v>3</v>
@@ -76984,7 +76981,7 @@
         <v>308</v>
       </c>
       <c r="AA1005" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1006" spans="1:27" x14ac:dyDescent="0.35">
@@ -76992,7 +76989,7 @@
         <v>6</v>
       </c>
       <c r="B1006" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="L1006">
         <v>3</v>
@@ -77037,7 +77034,7 @@
         <v>308</v>
       </c>
       <c r="AA1006" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1007" spans="1:27" x14ac:dyDescent="0.35">
@@ -77045,7 +77042,7 @@
         <v>6</v>
       </c>
       <c r="B1007" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L1007">
         <v>1</v>
@@ -77090,7 +77087,7 @@
         <v>308</v>
       </c>
       <c r="AA1007" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1008" spans="1:27" x14ac:dyDescent="0.35">
@@ -77098,7 +77095,7 @@
         <v>6</v>
       </c>
       <c r="B1008" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L1008">
         <v>6</v>
@@ -77143,7 +77140,7 @@
         <v>308</v>
       </c>
       <c r="AA1008" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="1009" spans="1:27" x14ac:dyDescent="0.35">
@@ -77151,7 +77148,7 @@
         <v>6</v>
       </c>
       <c r="B1009" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L1009">
         <v>0</v>
@@ -77196,7 +77193,7 @@
         <v>308</v>
       </c>
       <c r="AA1009" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1010" spans="1:27" x14ac:dyDescent="0.35">
@@ -77204,7 +77201,7 @@
         <v>6</v>
       </c>
       <c r="B1010" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L1010">
         <v>1</v>
@@ -77249,7 +77246,7 @@
         <v>310</v>
       </c>
       <c r="AA1010" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1011" spans="1:27" x14ac:dyDescent="0.35">
@@ -77257,7 +77254,7 @@
         <v>6</v>
       </c>
       <c r="B1011" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L1011">
         <v>4</v>
@@ -77302,7 +77299,7 @@
         <v>310</v>
       </c>
       <c r="AA1011" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1012" spans="1:27" x14ac:dyDescent="0.35">
@@ -77310,7 +77307,7 @@
         <v>6</v>
       </c>
       <c r="B1012" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L1012">
         <v>3</v>
@@ -77355,7 +77352,7 @@
         <v>321</v>
       </c>
       <c r="AA1012" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1013" spans="1:27" x14ac:dyDescent="0.35">
@@ -77363,7 +77360,7 @@
         <v>6</v>
       </c>
       <c r="B1013" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L1013">
         <v>0</v>
@@ -77408,7 +77405,7 @@
         <v>321</v>
       </c>
       <c r="AA1013" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1014" spans="1:27" x14ac:dyDescent="0.35">
@@ -77416,7 +77413,7 @@
         <v>6</v>
       </c>
       <c r="B1014" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L1014">
         <v>0</v>
@@ -77461,7 +77458,7 @@
         <v>321</v>
       </c>
       <c r="AA1014" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1015" spans="1:27" x14ac:dyDescent="0.35">
@@ -77575,7 +77572,7 @@
         <v>6</v>
       </c>
       <c r="B1017" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="L1017">
         <v>6</v>
@@ -77620,7 +77617,7 @@
         <v>339</v>
       </c>
       <c r="AA1017" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1018" spans="1:27" x14ac:dyDescent="0.35">
@@ -77628,7 +77625,7 @@
         <v>5</v>
       </c>
       <c r="B1018" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="L1018">
         <v>0</v>
@@ -77670,7 +77667,7 @@
         <v>346</v>
       </c>
       <c r="Z1018" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1019" spans="1:27" x14ac:dyDescent="0.35">
@@ -77678,7 +77675,7 @@
         <v>6</v>
       </c>
       <c r="B1019" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="L1019">
         <v>0</v>
@@ -77720,10 +77717,10 @@
         <v>346</v>
       </c>
       <c r="Z1019" t="s">
+        <v>849</v>
+      </c>
+      <c r="AA1019" t="s">
         <v>850</v>
-      </c>
-      <c r="AA1019" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="1020" spans="1:27" x14ac:dyDescent="0.35">
@@ -77731,7 +77728,7 @@
         <v>5</v>
       </c>
       <c r="B1020" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L1020">
         <v>0</v>
@@ -77773,7 +77770,7 @@
         <v>346</v>
       </c>
       <c r="Z1020" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1021" spans="1:27" x14ac:dyDescent="0.35">
@@ -77781,7 +77778,7 @@
         <v>6</v>
       </c>
       <c r="B1021" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L1021">
         <v>0</v>
@@ -77823,10 +77820,10 @@
         <v>346</v>
       </c>
       <c r="Z1021" t="s">
+        <v>851</v>
+      </c>
+      <c r="AA1021" t="s">
         <v>852</v>
-      </c>
-      <c r="AA1021" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="1022" spans="1:27" x14ac:dyDescent="0.35">
@@ -77834,7 +77831,7 @@
         <v>6</v>
       </c>
       <c r="B1022" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L1022">
         <v>0</v>
@@ -77879,7 +77876,7 @@
         <v>355</v>
       </c>
       <c r="AA1022" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1023" spans="1:27" x14ac:dyDescent="0.35">
@@ -77887,7 +77884,7 @@
         <v>6</v>
       </c>
       <c r="B1023" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="L1023">
         <v>2</v>
@@ -77932,7 +77929,7 @@
         <v>355</v>
       </c>
       <c r="AA1023" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1024" spans="1:27" x14ac:dyDescent="0.35">
@@ -77940,7 +77937,7 @@
         <v>6</v>
       </c>
       <c r="B1024" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L1024">
         <v>0</v>
@@ -77985,7 +77982,7 @@
         <v>360</v>
       </c>
       <c r="AA1024" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1025" spans="1:27" x14ac:dyDescent="0.35">
@@ -77993,7 +77990,7 @@
         <v>6</v>
       </c>
       <c r="B1025" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L1025">
         <v>0</v>
@@ -78038,7 +78035,7 @@
         <v>360</v>
       </c>
       <c r="AA1025" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1026" spans="1:27" x14ac:dyDescent="0.35">
@@ -78046,7 +78043,7 @@
         <v>6</v>
       </c>
       <c r="B1026" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L1026">
         <v>0</v>
@@ -78091,7 +78088,7 @@
         <v>366</v>
       </c>
       <c r="AA1026" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1027" spans="1:27" x14ac:dyDescent="0.35">
@@ -78099,7 +78096,7 @@
         <v>6</v>
       </c>
       <c r="B1027" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="L1027">
         <v>0</v>
@@ -78144,7 +78141,7 @@
         <v>366</v>
       </c>
       <c r="AA1027" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1028" spans="1:27" x14ac:dyDescent="0.35">
@@ -78152,7 +78149,7 @@
         <v>6</v>
       </c>
       <c r="B1028" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L1028">
         <v>5</v>
@@ -78197,7 +78194,7 @@
         <v>366</v>
       </c>
       <c r="AA1028" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="1029" spans="1:27" x14ac:dyDescent="0.35">
@@ -78205,7 +78202,7 @@
         <v>6</v>
       </c>
       <c r="B1029" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L1029">
         <v>0</v>
@@ -78250,7 +78247,7 @@
         <v>366</v>
       </c>
       <c r="AA1029" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1030" spans="1:27" x14ac:dyDescent="0.35">
@@ -78258,7 +78255,7 @@
         <v>6</v>
       </c>
       <c r="B1030" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L1030">
         <v>0</v>
@@ -78303,7 +78300,7 @@
         <v>366</v>
       </c>
       <c r="AA1030" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1031" spans="1:27" x14ac:dyDescent="0.35">
@@ -78311,7 +78308,7 @@
         <v>6</v>
       </c>
       <c r="B1031" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L1031">
         <v>0</v>
@@ -78356,7 +78353,7 @@
         <v>366</v>
       </c>
       <c r="AA1031" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1032" spans="1:27" x14ac:dyDescent="0.35">
@@ -78364,7 +78361,7 @@
         <v>6</v>
       </c>
       <c r="B1032" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="L1032">
         <v>8</v>
@@ -78409,7 +78406,7 @@
         <v>366</v>
       </c>
       <c r="AA1032" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1033" spans="1:27" x14ac:dyDescent="0.35">
@@ -78417,7 +78414,7 @@
         <v>6</v>
       </c>
       <c r="B1033" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="L1033">
         <v>0</v>
@@ -78462,7 +78459,7 @@
         <v>366</v>
       </c>
       <c r="AA1033" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1034" spans="1:27" x14ac:dyDescent="0.35">
@@ -78470,7 +78467,7 @@
         <v>6</v>
       </c>
       <c r="B1034" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="L1034">
         <v>0</v>
@@ -78515,7 +78512,7 @@
         <v>366</v>
       </c>
       <c r="AA1034" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1035" spans="1:27" x14ac:dyDescent="0.35">
@@ -78523,7 +78520,7 @@
         <v>6</v>
       </c>
       <c r="B1035" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L1035">
         <v>6</v>
@@ -78568,7 +78565,7 @@
         <v>366</v>
       </c>
       <c r="AA1035" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1036" spans="1:27" x14ac:dyDescent="0.35">
@@ -78576,7 +78573,7 @@
         <v>6</v>
       </c>
       <c r="B1036" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="L1036">
         <v>10</v>
@@ -78621,7 +78618,7 @@
         <v>366</v>
       </c>
       <c r="AA1036" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1037" spans="1:27" x14ac:dyDescent="0.35">
@@ -78629,7 +78626,7 @@
         <v>5</v>
       </c>
       <c r="B1037" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L1037">
         <v>7</v>
@@ -78671,7 +78668,7 @@
         <v>346</v>
       </c>
       <c r="Z1037" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1038" spans="1:27" x14ac:dyDescent="0.35">
@@ -78679,7 +78676,7 @@
         <v>6</v>
       </c>
       <c r="B1038" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="L1038">
         <v>7</v>
@@ -78721,10 +78718,10 @@
         <v>346</v>
       </c>
       <c r="Z1038" t="s">
+        <v>868</v>
+      </c>
+      <c r="AA1038" t="s">
         <v>869</v>
-      </c>
-      <c r="AA1038" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="1039" spans="1:27" x14ac:dyDescent="0.35">
@@ -78732,7 +78729,7 @@
         <v>6</v>
       </c>
       <c r="B1039" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="L1039">
         <v>4</v>
@@ -78777,7 +78774,7 @@
         <v>374</v>
       </c>
       <c r="AA1039" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1040" spans="1:27" x14ac:dyDescent="0.35">
@@ -78785,7 +78782,7 @@
         <v>6</v>
       </c>
       <c r="B1040" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="L1040">
         <v>2</v>
@@ -78830,7 +78827,7 @@
         <v>378</v>
       </c>
       <c r="AA1040" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="1041" spans="1:27" x14ac:dyDescent="0.35">
@@ -78838,7 +78835,7 @@
         <v>6</v>
       </c>
       <c r="B1041" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L1041">
         <v>1</v>
@@ -78883,7 +78880,7 @@
         <v>378</v>
       </c>
       <c r="AA1041" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1042" spans="1:27" x14ac:dyDescent="0.35">
@@ -78891,7 +78888,7 @@
         <v>6</v>
       </c>
       <c r="B1042" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L1042">
         <v>0</v>
@@ -78936,7 +78933,7 @@
         <v>378</v>
       </c>
       <c r="AA1042" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1043" spans="1:27" x14ac:dyDescent="0.35">
@@ -78944,7 +78941,7 @@
         <v>6</v>
       </c>
       <c r="B1043" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="L1043">
         <v>14</v>
@@ -78989,7 +78986,7 @@
         <v>378</v>
       </c>
       <c r="AA1043" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1044" spans="1:27" x14ac:dyDescent="0.35">
@@ -78997,7 +78994,7 @@
         <v>6</v>
       </c>
       <c r="B1044" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="L1044">
         <v>0</v>
@@ -79042,7 +79039,7 @@
         <v>378</v>
       </c>
       <c r="AA1044" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1045" spans="1:27" x14ac:dyDescent="0.35">
@@ -79050,7 +79047,7 @@
         <v>6</v>
       </c>
       <c r="B1045" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L1045">
         <v>0</v>
@@ -79095,7 +79092,7 @@
         <v>378</v>
       </c>
       <c r="AA1045" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1046" spans="1:27" x14ac:dyDescent="0.35">
@@ -79103,7 +79100,7 @@
         <v>6</v>
       </c>
       <c r="B1046" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L1046">
         <v>0</v>
@@ -79148,7 +79145,7 @@
         <v>378</v>
       </c>
       <c r="AA1046" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1047" spans="1:27" x14ac:dyDescent="0.35">
@@ -79156,7 +79153,7 @@
         <v>6</v>
       </c>
       <c r="B1047" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L1047">
         <v>0</v>
@@ -79201,7 +79198,7 @@
         <v>378</v>
       </c>
       <c r="AA1047" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1048" spans="1:27" x14ac:dyDescent="0.35">
@@ -79209,7 +79206,7 @@
         <v>6</v>
       </c>
       <c r="B1048" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="L1048">
         <v>0</v>
@@ -79254,7 +79251,7 @@
         <v>378</v>
       </c>
       <c r="AA1048" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1049" spans="1:27" x14ac:dyDescent="0.35">
@@ -79262,7 +79259,7 @@
         <v>6</v>
       </c>
       <c r="B1049" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="L1049">
         <v>0</v>
@@ -79307,7 +79304,7 @@
         <v>378</v>
       </c>
       <c r="AA1049" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1050" spans="1:27" x14ac:dyDescent="0.35">
@@ -79315,7 +79312,7 @@
         <v>5</v>
       </c>
       <c r="B1050" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="L1050">
         <v>1</v>
@@ -79357,7 +79354,7 @@
         <v>346</v>
       </c>
       <c r="Z1050" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1051" spans="1:27" x14ac:dyDescent="0.35">
@@ -79365,7 +79362,7 @@
         <v>6</v>
       </c>
       <c r="B1051" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L1051">
         <v>0</v>
@@ -79407,10 +79404,10 @@
         <v>346</v>
       </c>
       <c r="Z1051" t="s">
+        <v>881</v>
+      </c>
+      <c r="AA1051" t="s">
         <v>882</v>
-      </c>
-      <c r="AA1051" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="1052" spans="1:27" x14ac:dyDescent="0.35">
@@ -79418,7 +79415,7 @@
         <v>6</v>
       </c>
       <c r="B1052" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="L1052">
         <v>1</v>
@@ -79460,10 +79457,10 @@
         <v>346</v>
       </c>
       <c r="Z1052" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AA1052" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1053" spans="1:27" x14ac:dyDescent="0.35">
@@ -79471,7 +79468,7 @@
         <v>6</v>
       </c>
       <c r="B1053" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="L1053">
         <v>1</v>
@@ -79516,7 +79513,7 @@
         <v>390</v>
       </c>
       <c r="AA1053" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="1054" spans="1:27" x14ac:dyDescent="0.35">
@@ -79524,7 +79521,7 @@
         <v>6</v>
       </c>
       <c r="B1054" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="L1054">
         <v>0</v>
@@ -79569,7 +79566,7 @@
         <v>394</v>
       </c>
       <c r="AA1054" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="1055" spans="1:27" x14ac:dyDescent="0.35">
@@ -79577,7 +79574,7 @@
         <v>6</v>
       </c>
       <c r="B1055" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="L1055">
         <v>5</v>
@@ -79622,7 +79619,7 @@
         <v>394</v>
       </c>
       <c r="AA1055" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="1056" spans="1:27" x14ac:dyDescent="0.35">
@@ -79630,7 +79627,7 @@
         <v>6</v>
       </c>
       <c r="B1056" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="L1056">
         <v>9</v>
@@ -79675,7 +79672,7 @@
         <v>394</v>
       </c>
       <c r="AA1056" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1057" spans="1:27" x14ac:dyDescent="0.35">
@@ -79736,7 +79733,7 @@
         <v>5</v>
       </c>
       <c r="B1058" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L1058">
         <v>0</v>
@@ -79778,7 +79775,7 @@
         <v>400</v>
       </c>
       <c r="Z1058" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="1059" spans="1:27" x14ac:dyDescent="0.35">
@@ -79786,7 +79783,7 @@
         <v>6</v>
       </c>
       <c r="B1059" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L1059">
         <v>0</v>
@@ -79828,10 +79825,10 @@
         <v>400</v>
       </c>
       <c r="Z1059" t="s">
+        <v>888</v>
+      </c>
+      <c r="AA1059" t="s">
         <v>889</v>
-      </c>
-      <c r="AA1059" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="1060" spans="1:27" x14ac:dyDescent="0.35">
@@ -79839,7 +79836,7 @@
         <v>6</v>
       </c>
       <c r="B1060" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L1060">
         <v>0</v>
@@ -79884,7 +79881,7 @@
         <v>402</v>
       </c>
       <c r="AA1060" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1061" spans="1:27" x14ac:dyDescent="0.35">
@@ -79892,7 +79889,7 @@
         <v>6</v>
       </c>
       <c r="B1061" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="L1061">
         <v>0</v>
@@ -79937,7 +79934,7 @@
         <v>402</v>
       </c>
       <c r="AA1061" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="1062" spans="1:27" x14ac:dyDescent="0.35">
@@ -79945,7 +79942,7 @@
         <v>6</v>
       </c>
       <c r="B1062" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L1062">
         <v>64</v>
@@ -79990,7 +79987,7 @@
         <v>402</v>
       </c>
       <c r="AA1062" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="1063" spans="1:27" x14ac:dyDescent="0.35">
@@ -79998,7 +79995,7 @@
         <v>2</v>
       </c>
       <c r="B1063" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L1063">
         <v>95</v>
@@ -80031,7 +80028,7 @@
         <v>28</v>
       </c>
       <c r="W1063" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1064" spans="1:27" x14ac:dyDescent="0.35">
@@ -80039,7 +80036,7 @@
         <v>3</v>
       </c>
       <c r="B1064" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="L1064">
         <v>95</v>
@@ -80072,10 +80069,10 @@
         <v>28</v>
       </c>
       <c r="W1064" t="s">
+        <v>893</v>
+      </c>
+      <c r="X1064" t="s">
         <v>894</v>
-      </c>
-      <c r="X1064" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="1065" spans="1:27" x14ac:dyDescent="0.35">
@@ -80083,7 +80080,7 @@
         <v>4</v>
       </c>
       <c r="B1065" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="L1065">
         <v>95</v>
@@ -80116,13 +80113,13 @@
         <v>28</v>
       </c>
       <c r="W1065" t="s">
+        <v>893</v>
+      </c>
+      <c r="X1065" t="s">
         <v>894</v>
       </c>
-      <c r="X1065" t="s">
+      <c r="Y1065" t="s">
         <v>895</v>
-      </c>
-      <c r="Y1065" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="1066" spans="1:27" x14ac:dyDescent="0.35">
@@ -80130,7 +80127,7 @@
         <v>5</v>
       </c>
       <c r="B1066" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L1066">
         <v>95</v>
@@ -80163,16 +80160,16 @@
         <v>28</v>
       </c>
       <c r="W1066" t="s">
+        <v>893</v>
+      </c>
+      <c r="X1066" t="s">
         <v>894</v>
       </c>
-      <c r="X1066" t="s">
+      <c r="Y1066" t="s">
         <v>895</v>
       </c>
-      <c r="Y1066" t="s">
+      <c r="Z1066" t="s">
         <v>896</v>
-      </c>
-      <c r="Z1066" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="1067" spans="1:27" x14ac:dyDescent="0.35">
@@ -80180,7 +80177,7 @@
         <v>6</v>
       </c>
       <c r="B1067" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L1067">
         <v>95</v>
@@ -80213,19 +80210,19 @@
         <v>28</v>
       </c>
       <c r="W1067" t="s">
+        <v>893</v>
+      </c>
+      <c r="X1067" t="s">
         <v>894</v>
       </c>
-      <c r="X1067" t="s">
+      <c r="Y1067" t="s">
         <v>895</v>
       </c>
-      <c r="Y1067" t="s">
+      <c r="Z1067" t="s">
         <v>896</v>
       </c>
-      <c r="Z1067" t="s">
+      <c r="AA1067" t="s">
         <v>897</v>
-      </c>
-      <c r="AA1067" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="1068" spans="1:27" x14ac:dyDescent="0.35">
@@ -80233,7 +80230,7 @@
         <v>2</v>
       </c>
       <c r="B1068" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="L1068">
         <v>2</v>
@@ -80266,7 +80263,7 @@
         <v>28</v>
       </c>
       <c r="W1068" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="1069" spans="1:27" x14ac:dyDescent="0.35">
@@ -80274,7 +80271,7 @@
         <v>3</v>
       </c>
       <c r="B1069" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="L1069">
         <v>2</v>
@@ -80307,10 +80304,10 @@
         <v>28</v>
       </c>
       <c r="W1069" t="s">
+        <v>898</v>
+      </c>
+      <c r="X1069" t="s">
         <v>899</v>
-      </c>
-      <c r="X1069" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="1070" spans="1:27" x14ac:dyDescent="0.35">
@@ -80318,7 +80315,7 @@
         <v>4</v>
       </c>
       <c r="B1070" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="L1070">
         <v>2</v>
@@ -80351,13 +80348,13 @@
         <v>28</v>
       </c>
       <c r="W1070" t="s">
+        <v>898</v>
+      </c>
+      <c r="X1070" t="s">
         <v>899</v>
       </c>
-      <c r="X1070" t="s">
+      <c r="Y1070" t="s">
         <v>900</v>
-      </c>
-      <c r="Y1070" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="1071" spans="1:27" x14ac:dyDescent="0.35">
@@ -80365,7 +80362,7 @@
         <v>5</v>
       </c>
       <c r="B1071" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L1071">
         <v>2</v>
@@ -80398,16 +80395,16 @@
         <v>28</v>
       </c>
       <c r="W1071" t="s">
+        <v>898</v>
+      </c>
+      <c r="X1071" t="s">
         <v>899</v>
       </c>
-      <c r="X1071" t="s">
+      <c r="Y1071" t="s">
         <v>900</v>
       </c>
-      <c r="Y1071" t="s">
+      <c r="Z1071" t="s">
         <v>901</v>
-      </c>
-      <c r="Z1071" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="1072" spans="1:27" x14ac:dyDescent="0.35">
@@ -80415,7 +80412,7 @@
         <v>6</v>
       </c>
       <c r="B1072" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="L1072">
         <v>2</v>
@@ -80448,19 +80445,19 @@
         <v>28</v>
       </c>
       <c r="W1072" t="s">
+        <v>898</v>
+      </c>
+      <c r="X1072" t="s">
         <v>899</v>
       </c>
-      <c r="X1072" t="s">
+      <c r="Y1072" t="s">
         <v>900</v>
       </c>
-      <c r="Y1072" t="s">
+      <c r="Z1072" t="s">
         <v>901</v>
       </c>
-      <c r="Z1072" t="s">
+      <c r="AA1072" t="s">
         <v>902</v>
-      </c>
-      <c r="AA1072" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="1073" spans="1:27" x14ac:dyDescent="0.35">
@@ -80468,7 +80465,7 @@
         <v>3</v>
       </c>
       <c r="B1073" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="L1073">
         <v>5</v>
@@ -80504,7 +80501,7 @@
         <v>429</v>
       </c>
       <c r="X1073" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1074" spans="1:27" x14ac:dyDescent="0.35">
@@ -80512,7 +80509,7 @@
         <v>4</v>
       </c>
       <c r="B1074" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L1074">
         <v>5</v>
@@ -80548,10 +80545,10 @@
         <v>429</v>
       </c>
       <c r="X1074" t="s">
+        <v>903</v>
+      </c>
+      <c r="Y1074" t="s">
         <v>904</v>
-      </c>
-      <c r="Y1074" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="1075" spans="1:27" x14ac:dyDescent="0.35">
@@ -80559,7 +80556,7 @@
         <v>5</v>
       </c>
       <c r="B1075" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="L1075">
         <v>5</v>
@@ -80595,13 +80592,13 @@
         <v>429</v>
       </c>
       <c r="X1075" t="s">
+        <v>903</v>
+      </c>
+      <c r="Y1075" t="s">
         <v>904</v>
       </c>
-      <c r="Y1075" t="s">
+      <c r="Z1075" t="s">
         <v>905</v>
-      </c>
-      <c r="Z1075" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="1076" spans="1:27" x14ac:dyDescent="0.35">
@@ -80609,7 +80606,7 @@
         <v>6</v>
       </c>
       <c r="B1076" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L1076">
         <v>5</v>
@@ -80645,16 +80642,16 @@
         <v>429</v>
       </c>
       <c r="X1076" t="s">
+        <v>903</v>
+      </c>
+      <c r="Y1076" t="s">
         <v>904</v>
       </c>
-      <c r="Y1076" t="s">
+      <c r="Z1076" t="s">
         <v>905</v>
       </c>
-      <c r="Z1076" t="s">
+      <c r="AA1076" t="s">
         <v>906</v>
-      </c>
-      <c r="AA1076" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="1077" spans="1:27" x14ac:dyDescent="0.35">
@@ -80662,7 +80659,7 @@
         <v>4</v>
       </c>
       <c r="B1077" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="L1077">
         <v>0</v>
@@ -80701,7 +80698,7 @@
         <v>430</v>
       </c>
       <c r="Y1077" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1078" spans="1:27" x14ac:dyDescent="0.35">
@@ -80709,7 +80706,7 @@
         <v>5</v>
       </c>
       <c r="B1078" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="L1078">
         <v>0</v>
@@ -80748,10 +80745,10 @@
         <v>430</v>
       </c>
       <c r="Y1078" t="s">
+        <v>907</v>
+      </c>
+      <c r="Z1078" t="s">
         <v>908</v>
-      </c>
-      <c r="Z1078" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="1079" spans="1:27" x14ac:dyDescent="0.35">
@@ -80759,7 +80756,7 @@
         <v>6</v>
       </c>
       <c r="B1079" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="L1079">
         <v>0</v>
@@ -80798,13 +80795,13 @@
         <v>430</v>
       </c>
       <c r="Y1079" t="s">
+        <v>907</v>
+      </c>
+      <c r="Z1079" t="s">
         <v>908</v>
       </c>
-      <c r="Z1079" t="s">
+      <c r="AA1079" t="s">
         <v>909</v>
-      </c>
-      <c r="AA1079" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="1080" spans="1:27" x14ac:dyDescent="0.35">
@@ -80812,7 +80809,7 @@
         <v>6</v>
       </c>
       <c r="B1080" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="L1080">
         <v>0</v>
@@ -80851,13 +80848,13 @@
         <v>430</v>
       </c>
       <c r="Y1080" t="s">
+        <v>907</v>
+      </c>
+      <c r="Z1080" t="s">
         <v>908</v>
       </c>
-      <c r="Z1080" t="s">
-        <v>909</v>
-      </c>
       <c r="AA1080" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="1081" spans="1:27" x14ac:dyDescent="0.35">
@@ -80865,7 +80862,7 @@
         <v>4</v>
       </c>
       <c r="B1081" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L1081">
         <v>9</v>
@@ -80904,7 +80901,7 @@
         <v>434</v>
       </c>
       <c r="Y1081" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1082" spans="1:27" x14ac:dyDescent="0.35">
@@ -80912,7 +80909,7 @@
         <v>5</v>
       </c>
       <c r="B1082" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L1082">
         <v>9</v>
@@ -80951,10 +80948,10 @@
         <v>434</v>
       </c>
       <c r="Y1082" t="s">
+        <v>910</v>
+      </c>
+      <c r="Z1082" t="s">
         <v>911</v>
-      </c>
-      <c r="Z1082" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="1083" spans="1:27" x14ac:dyDescent="0.35">
@@ -80962,7 +80959,7 @@
         <v>6</v>
       </c>
       <c r="B1083" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L1083">
         <v>2</v>
@@ -81001,13 +80998,13 @@
         <v>434</v>
       </c>
       <c r="Y1083" t="s">
+        <v>910</v>
+      </c>
+      <c r="Z1083" t="s">
         <v>911</v>
       </c>
-      <c r="Z1083" t="s">
+      <c r="AA1083" t="s">
         <v>912</v>
-      </c>
-      <c r="AA1083" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="1084" spans="1:27" x14ac:dyDescent="0.35">
@@ -81015,7 +81012,7 @@
         <v>6</v>
       </c>
       <c r="B1084" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L1084">
         <v>1</v>
@@ -81054,13 +81051,13 @@
         <v>434</v>
       </c>
       <c r="Y1084" t="s">
+        <v>910</v>
+      </c>
+      <c r="Z1084" t="s">
         <v>911</v>
       </c>
-      <c r="Z1084" t="s">
-        <v>912</v>
-      </c>
       <c r="AA1084" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="1085" spans="1:27" x14ac:dyDescent="0.35">
@@ -81068,7 +81065,7 @@
         <v>6</v>
       </c>
       <c r="B1085" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L1085">
         <v>6</v>
@@ -81107,13 +81104,13 @@
         <v>434</v>
       </c>
       <c r="Y1085" t="s">
+        <v>910</v>
+      </c>
+      <c r="Z1085" t="s">
         <v>911</v>
       </c>
-      <c r="Z1085" t="s">
-        <v>912</v>
-      </c>
       <c r="AA1085" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="1086" spans="1:27" x14ac:dyDescent="0.35">
@@ -81121,7 +81118,7 @@
         <v>6</v>
       </c>
       <c r="B1086" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L1086">
         <v>6</v>
@@ -81166,7 +81163,7 @@
         <v>436</v>
       </c>
       <c r="AA1086" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1087" spans="1:27" x14ac:dyDescent="0.35">
@@ -81174,7 +81171,7 @@
         <v>6</v>
       </c>
       <c r="B1087" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="L1087">
         <v>1</v>
@@ -81219,7 +81216,7 @@
         <v>439</v>
       </c>
       <c r="AA1087" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1088" spans="1:27" x14ac:dyDescent="0.35">
@@ -81227,7 +81224,7 @@
         <v>4</v>
       </c>
       <c r="B1088" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="L1088">
         <v>7</v>
@@ -81266,7 +81263,7 @@
         <v>434</v>
       </c>
       <c r="Y1088" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1089" spans="1:27" x14ac:dyDescent="0.35">
@@ -81274,7 +81271,7 @@
         <v>5</v>
       </c>
       <c r="B1089" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="L1089">
         <v>7</v>
@@ -81313,10 +81310,10 @@
         <v>434</v>
       </c>
       <c r="Y1089" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="Z1089" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1090" spans="1:27" x14ac:dyDescent="0.35">
@@ -81324,7 +81321,7 @@
         <v>6</v>
       </c>
       <c r="B1090" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="L1090">
         <v>7</v>
@@ -81363,13 +81360,13 @@
         <v>434</v>
       </c>
       <c r="Y1090" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="Z1090" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AA1090" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1091" spans="1:27" x14ac:dyDescent="0.35">
@@ -81377,7 +81374,7 @@
         <v>5</v>
       </c>
       <c r="B1091" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L1091">
         <v>0</v>
@@ -81419,7 +81416,7 @@
         <v>440</v>
       </c>
       <c r="Z1091" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1092" spans="1:27" x14ac:dyDescent="0.35">
@@ -81427,7 +81424,7 @@
         <v>6</v>
       </c>
       <c r="B1092" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L1092">
         <v>0</v>
@@ -81469,10 +81466,10 @@
         <v>440</v>
       </c>
       <c r="Z1092" t="s">
+        <v>917</v>
+      </c>
+      <c r="AA1092" t="s">
         <v>918</v>
-      </c>
-      <c r="AA1092" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="1093" spans="1:27" x14ac:dyDescent="0.35">
@@ -81480,7 +81477,7 @@
         <v>6</v>
       </c>
       <c r="B1093" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L1093">
         <v>0</v>
@@ -81522,10 +81519,10 @@
         <v>440</v>
       </c>
       <c r="Z1093" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AA1093" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1094" spans="1:27" x14ac:dyDescent="0.35">
@@ -81533,7 +81530,7 @@
         <v>5</v>
       </c>
       <c r="B1094" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L1094">
         <v>0</v>
@@ -81575,7 +81572,7 @@
         <v>440</v>
       </c>
       <c r="Z1094" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1095" spans="1:27" x14ac:dyDescent="0.35">
@@ -81583,7 +81580,7 @@
         <v>6</v>
       </c>
       <c r="B1095" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L1095">
         <v>0</v>
@@ -81625,10 +81622,10 @@
         <v>440</v>
       </c>
       <c r="Z1095" t="s">
+        <v>919</v>
+      </c>
+      <c r="AA1095" t="s">
         <v>920</v>
-      </c>
-      <c r="AA1095" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="1096" spans="1:27" x14ac:dyDescent="0.35">
@@ -81636,7 +81633,7 @@
         <v>4</v>
       </c>
       <c r="B1096" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L1096">
         <v>1</v>
@@ -81675,7 +81672,7 @@
         <v>445</v>
       </c>
       <c r="Y1096" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1097" spans="1:27" x14ac:dyDescent="0.35">
@@ -81683,7 +81680,7 @@
         <v>5</v>
       </c>
       <c r="B1097" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L1097">
         <v>1</v>
@@ -81722,10 +81719,10 @@
         <v>445</v>
       </c>
       <c r="Y1097" t="s">
+        <v>921</v>
+      </c>
+      <c r="Z1097" t="s">
         <v>922</v>
-      </c>
-      <c r="Z1097" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="1098" spans="1:27" x14ac:dyDescent="0.35">
@@ -81733,7 +81730,7 @@
         <v>6</v>
       </c>
       <c r="B1098" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L1098">
         <v>1</v>
@@ -81772,13 +81769,13 @@
         <v>445</v>
       </c>
       <c r="Y1098" t="s">
+        <v>921</v>
+      </c>
+      <c r="Z1098" t="s">
         <v>922</v>
       </c>
-      <c r="Z1098" t="s">
+      <c r="AA1098" t="s">
         <v>923</v>
-      </c>
-      <c r="AA1098" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="1099" spans="1:27" x14ac:dyDescent="0.35">
@@ -81786,7 +81783,7 @@
         <v>4</v>
       </c>
       <c r="B1099" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L1099">
         <v>0</v>
@@ -81825,7 +81822,7 @@
         <v>445</v>
       </c>
       <c r="Y1099" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1100" spans="1:27" x14ac:dyDescent="0.35">
@@ -81833,7 +81830,7 @@
         <v>5</v>
       </c>
       <c r="B1100" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="L1100">
         <v>0</v>
@@ -81872,10 +81869,10 @@
         <v>445</v>
       </c>
       <c r="Y1100" t="s">
+        <v>924</v>
+      </c>
+      <c r="Z1100" t="s">
         <v>925</v>
-      </c>
-      <c r="Z1100" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="1101" spans="1:27" x14ac:dyDescent="0.35">
@@ -81883,7 +81880,7 @@
         <v>6</v>
       </c>
       <c r="B1101" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="L1101">
         <v>0</v>
@@ -81922,13 +81919,13 @@
         <v>445</v>
       </c>
       <c r="Y1101" t="s">
+        <v>924</v>
+      </c>
+      <c r="Z1101" t="s">
         <v>925</v>
       </c>
-      <c r="Z1101" t="s">
-        <v>926</v>
-      </c>
       <c r="AA1101" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="1102" spans="1:27" x14ac:dyDescent="0.35">
@@ -81936,7 +81933,7 @@
         <v>5</v>
       </c>
       <c r="B1102" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L1102">
         <v>0</v>
@@ -81978,7 +81975,7 @@
         <v>470</v>
       </c>
       <c r="Z1102" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="1103" spans="1:27" x14ac:dyDescent="0.35">
@@ -81986,7 +81983,7 @@
         <v>6</v>
       </c>
       <c r="B1103" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L1103">
         <v>0</v>
@@ -82028,10 +82025,10 @@
         <v>470</v>
       </c>
       <c r="Z1103" t="s">
+        <v>926</v>
+      </c>
+      <c r="AA1103" t="s">
         <v>927</v>
-      </c>
-      <c r="AA1103" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="1104" spans="1:27" x14ac:dyDescent="0.35">
@@ -82039,7 +82036,7 @@
         <v>6</v>
       </c>
       <c r="B1104" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L1104">
         <v>8</v>
@@ -82084,7 +82081,7 @@
         <v>481</v>
       </c>
       <c r="AA1104" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="1105" spans="1:27" x14ac:dyDescent="0.35">
@@ -82092,7 +82089,7 @@
         <v>6</v>
       </c>
       <c r="B1105" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L1105">
         <v>11</v>
@@ -82137,7 +82134,7 @@
         <v>487</v>
       </c>
       <c r="AA1105" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="1106" spans="1:27" x14ac:dyDescent="0.35">
@@ -82145,7 +82142,7 @@
         <v>6</v>
       </c>
       <c r="B1106" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L1106">
         <v>0</v>
@@ -82190,7 +82187,7 @@
         <v>487</v>
       </c>
       <c r="AA1106" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="1107" spans="1:27" x14ac:dyDescent="0.35">
@@ -82198,7 +82195,7 @@
         <v>6</v>
       </c>
       <c r="B1107" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L1107">
         <v>3</v>
@@ -82243,7 +82240,7 @@
         <v>487</v>
       </c>
       <c r="AA1107" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="1108" spans="1:27" x14ac:dyDescent="0.35">
@@ -82251,7 +82248,7 @@
         <v>6</v>
       </c>
       <c r="B1108" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L1108">
         <v>5</v>
@@ -82296,7 +82293,7 @@
         <v>487</v>
       </c>
       <c r="AA1108" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="1109" spans="1:27" x14ac:dyDescent="0.35">
@@ -82304,7 +82301,7 @@
         <v>6</v>
       </c>
       <c r="B1109" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L1109">
         <v>0</v>
@@ -82349,7 +82346,7 @@
         <v>493</v>
       </c>
       <c r="AA1109" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="1110" spans="1:27" x14ac:dyDescent="0.35">
@@ -82357,7 +82354,7 @@
         <v>6</v>
       </c>
       <c r="B1110" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L1110">
         <v>0</v>
@@ -82402,7 +82399,7 @@
         <v>496</v>
       </c>
       <c r="AA1110" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1111" spans="1:27" x14ac:dyDescent="0.35">
@@ -82410,7 +82407,7 @@
         <v>6</v>
       </c>
       <c r="B1111" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L1111">
         <v>0</v>
@@ -82455,7 +82452,7 @@
         <v>502</v>
       </c>
       <c r="AA1111" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="1112" spans="1:27" x14ac:dyDescent="0.35">
@@ -82463,7 +82460,7 @@
         <v>6</v>
       </c>
       <c r="B1112" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L1112">
         <v>0</v>
@@ -82508,7 +82505,7 @@
         <v>502</v>
       </c>
       <c r="AA1112" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="1113" spans="1:27" x14ac:dyDescent="0.35">
@@ -82516,7 +82513,7 @@
         <v>6</v>
       </c>
       <c r="B1113" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="L1113">
         <v>0</v>
@@ -82561,7 +82558,7 @@
         <v>502</v>
       </c>
       <c r="AA1113" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="1114" spans="1:27" x14ac:dyDescent="0.35">
@@ -82569,7 +82566,7 @@
         <v>5</v>
       </c>
       <c r="B1114" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="L1114">
         <v>0</v>
@@ -82611,7 +82608,7 @@
         <v>506</v>
       </c>
       <c r="Z1114" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="1115" spans="1:27" x14ac:dyDescent="0.35">
@@ -82619,7 +82616,7 @@
         <v>6</v>
       </c>
       <c r="B1115" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L1115">
         <v>0</v>
@@ -82661,10 +82658,10 @@
         <v>506</v>
       </c>
       <c r="Z1115" t="s">
+        <v>938</v>
+      </c>
+      <c r="AA1115" t="s">
         <v>939</v>
-      </c>
-      <c r="AA1115" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="1116" spans="1:27" x14ac:dyDescent="0.35">
@@ -82672,7 +82669,7 @@
         <v>5</v>
       </c>
       <c r="B1116" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L1116">
         <v>0</v>
@@ -82714,7 +82711,7 @@
         <v>506</v>
       </c>
       <c r="Z1116" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="1117" spans="1:27" x14ac:dyDescent="0.35">
@@ -82722,7 +82719,7 @@
         <v>6</v>
       </c>
       <c r="B1117" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L1117">
         <v>0</v>
@@ -82764,10 +82761,10 @@
         <v>506</v>
       </c>
       <c r="Z1117" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AA1117" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="1118" spans="1:27" x14ac:dyDescent="0.35">
@@ -82775,7 +82772,7 @@
         <v>4</v>
       </c>
       <c r="B1118" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="L1118">
         <v>0</v>
@@ -82814,7 +82811,7 @@
         <v>445</v>
       </c>
       <c r="Y1118" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="1119" spans="1:27" x14ac:dyDescent="0.35">
@@ -82822,7 +82819,7 @@
         <v>5</v>
       </c>
       <c r="B1119" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L1119">
         <v>0</v>
@@ -82861,10 +82858,10 @@
         <v>445</v>
       </c>
       <c r="Y1119" t="s">
+        <v>941</v>
+      </c>
+      <c r="Z1119" t="s">
         <v>942</v>
-      </c>
-      <c r="Z1119" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="1120" spans="1:27" x14ac:dyDescent="0.35">
@@ -82872,7 +82869,7 @@
         <v>6</v>
       </c>
       <c r="B1120" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L1120">
         <v>0</v>
@@ -82911,13 +82908,13 @@
         <v>445</v>
       </c>
       <c r="Y1120" t="s">
+        <v>941</v>
+      </c>
+      <c r="Z1120" t="s">
         <v>942</v>
       </c>
-      <c r="Z1120" t="s">
+      <c r="AA1120" t="s">
         <v>943</v>
-      </c>
-      <c r="AA1120" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="1121" spans="1:27" x14ac:dyDescent="0.35">
@@ -82925,7 +82922,7 @@
         <v>6</v>
       </c>
       <c r="B1121" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L1121">
         <v>0</v>
@@ -82964,13 +82961,13 @@
         <v>445</v>
       </c>
       <c r="Y1121" t="s">
+        <v>941</v>
+      </c>
+      <c r="Z1121" t="s">
         <v>942</v>
       </c>
-      <c r="Z1121" t="s">
-        <v>943</v>
-      </c>
       <c r="AA1121" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="1122" spans="1:27" x14ac:dyDescent="0.35">
@@ -82978,7 +82975,7 @@
         <v>5</v>
       </c>
       <c r="B1122" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L1122">
         <v>0</v>
@@ -83017,10 +83014,10 @@
         <v>445</v>
       </c>
       <c r="Y1122" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="Z1122" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="1123" spans="1:27" x14ac:dyDescent="0.35">
@@ -83028,7 +83025,7 @@
         <v>6</v>
       </c>
       <c r="B1123" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L1123">
         <v>0</v>
@@ -83067,13 +83064,13 @@
         <v>445</v>
       </c>
       <c r="Y1123" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="Z1123" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AA1123" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="1124" spans="1:27" x14ac:dyDescent="0.35">
@@ -83081,7 +83078,7 @@
         <v>6</v>
       </c>
       <c r="B1124" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="L1124">
         <v>4</v>
@@ -83126,7 +83123,7 @@
         <v>510</v>
       </c>
       <c r="AA1124" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1125" spans="1:27" x14ac:dyDescent="0.35">
@@ -83134,7 +83131,7 @@
         <v>6</v>
       </c>
       <c r="B1125" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="L1125">
         <v>0</v>
@@ -83179,7 +83176,7 @@
         <v>510</v>
       </c>
       <c r="AA1125" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="1126" spans="1:27" x14ac:dyDescent="0.35">
@@ -83187,7 +83184,7 @@
         <v>6</v>
       </c>
       <c r="B1126" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="L1126">
         <v>0</v>
@@ -83232,7 +83229,7 @@
         <v>510</v>
       </c>
       <c r="AA1126" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="1127" spans="1:27" x14ac:dyDescent="0.35">
@@ -83240,7 +83237,7 @@
         <v>4</v>
       </c>
       <c r="B1127" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="L1127">
         <v>0</v>
@@ -83279,7 +83276,7 @@
         <v>445</v>
       </c>
       <c r="Y1127" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="1128" spans="1:27" x14ac:dyDescent="0.35">
@@ -83287,7 +83284,7 @@
         <v>5</v>
       </c>
       <c r="B1128" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="L1128">
         <v>0</v>
@@ -83326,10 +83323,10 @@
         <v>445</v>
       </c>
       <c r="Y1128" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="Z1128" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="1129" spans="1:27" x14ac:dyDescent="0.35">
@@ -83337,7 +83334,7 @@
         <v>6</v>
       </c>
       <c r="B1129" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="L1129">
         <v>0</v>
@@ -83376,13 +83373,13 @@
         <v>445</v>
       </c>
       <c r="Y1129" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="Z1129" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AA1129" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="1130" spans="1:27" x14ac:dyDescent="0.35">
@@ -83390,7 +83387,7 @@
         <v>6</v>
       </c>
       <c r="B1130" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="L1130">
         <v>0</v>
@@ -83435,7 +83432,7 @@
         <v>522</v>
       </c>
       <c r="AA1130" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="1131" spans="1:27" x14ac:dyDescent="0.35">
@@ -83443,7 +83440,7 @@
         <v>4</v>
       </c>
       <c r="B1131" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="L1131">
         <v>11</v>
@@ -83482,7 +83479,7 @@
         <v>520</v>
       </c>
       <c r="Y1131" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="1132" spans="1:27" x14ac:dyDescent="0.35">
@@ -83490,7 +83487,7 @@
         <v>5</v>
       </c>
       <c r="B1132" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="L1132">
         <v>11</v>
@@ -83529,10 +83526,10 @@
         <v>520</v>
       </c>
       <c r="Y1132" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="Z1132" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="1133" spans="1:27" x14ac:dyDescent="0.35">
@@ -83540,7 +83537,7 @@
         <v>6</v>
       </c>
       <c r="B1133" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="L1133">
         <v>11</v>
@@ -83579,13 +83576,13 @@
         <v>520</v>
       </c>
       <c r="Y1133" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="Z1133" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AA1133" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="1134" spans="1:27" x14ac:dyDescent="0.35">
@@ -83646,7 +83643,7 @@
         <v>6</v>
       </c>
       <c r="B1135" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L1135">
         <v>0</v>
@@ -83691,7 +83688,7 @@
         <v>530</v>
       </c>
       <c r="AA1135" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="1136" spans="1:27" x14ac:dyDescent="0.35">
@@ -83752,7 +83749,7 @@
         <v>5</v>
       </c>
       <c r="B1137" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="L1137">
         <v>0</v>
@@ -83794,7 +83791,7 @@
         <v>529</v>
       </c>
       <c r="Z1137" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="1138" spans="1:27" x14ac:dyDescent="0.35">
@@ -83802,7 +83799,7 @@
         <v>6</v>
       </c>
       <c r="B1138" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="L1138">
         <v>0</v>
@@ -83844,10 +83841,10 @@
         <v>529</v>
       </c>
       <c r="Z1138" t="s">
+        <v>952</v>
+      </c>
+      <c r="AA1138" t="s">
         <v>953</v>
-      </c>
-      <c r="AA1138" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="1139" spans="1:27" x14ac:dyDescent="0.35">
@@ -83855,7 +83852,7 @@
         <v>5</v>
       </c>
       <c r="B1139" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="L1139">
         <v>9</v>
@@ -83897,7 +83894,7 @@
         <v>529</v>
       </c>
       <c r="Z1139" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1140" spans="1:27" x14ac:dyDescent="0.35">
@@ -83905,7 +83902,7 @@
         <v>6</v>
       </c>
       <c r="B1140" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L1140">
         <v>9</v>
@@ -83947,10 +83944,10 @@
         <v>529</v>
       </c>
       <c r="Z1140" t="s">
+        <v>954</v>
+      </c>
+      <c r="AA1140" t="s">
         <v>955</v>
-      </c>
-      <c r="AA1140" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="1141" spans="1:27" x14ac:dyDescent="0.35">
@@ -83958,7 +83955,7 @@
         <v>6</v>
       </c>
       <c r="B1141" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="L1141">
         <v>0</v>
@@ -84000,10 +83997,10 @@
         <v>529</v>
       </c>
       <c r="Z1141" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AA1141" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1142" spans="1:27" x14ac:dyDescent="0.35">
@@ -84011,7 +84008,7 @@
         <v>6</v>
       </c>
       <c r="B1142" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="L1142">
         <v>0</v>
@@ -84053,10 +84050,10 @@
         <v>529</v>
       </c>
       <c r="Z1142" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AA1142" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1143" spans="1:27" x14ac:dyDescent="0.35">
@@ -84064,7 +84061,7 @@
         <v>5</v>
       </c>
       <c r="B1143" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="L1143">
         <v>7</v>
@@ -84106,7 +84103,7 @@
         <v>529</v>
       </c>
       <c r="Z1143" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1144" spans="1:27" x14ac:dyDescent="0.35">
@@ -84114,7 +84111,7 @@
         <v>6</v>
       </c>
       <c r="B1144" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="L1144">
         <v>7</v>
@@ -84156,10 +84153,10 @@
         <v>529</v>
       </c>
       <c r="Z1144" t="s">
+        <v>957</v>
+      </c>
+      <c r="AA1144" t="s">
         <v>958</v>
-      </c>
-      <c r="AA1144" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="1145" spans="1:27" x14ac:dyDescent="0.35">
@@ -84167,7 +84164,7 @@
         <v>6</v>
       </c>
       <c r="B1145" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L1145">
         <v>5</v>
@@ -84212,7 +84209,7 @@
         <v>537</v>
       </c>
       <c r="AA1145" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1146" spans="1:27" x14ac:dyDescent="0.35">
@@ -84220,7 +84217,7 @@
         <v>6</v>
       </c>
       <c r="B1146" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="L1146">
         <v>3</v>
@@ -84265,7 +84262,7 @@
         <v>537</v>
       </c>
       <c r="AA1146" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="1147" spans="1:27" x14ac:dyDescent="0.35">
@@ -84273,7 +84270,7 @@
         <v>5</v>
       </c>
       <c r="B1147" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L1147">
         <v>3</v>
@@ -84315,7 +84312,7 @@
         <v>529</v>
       </c>
       <c r="Z1147" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="1148" spans="1:27" x14ac:dyDescent="0.35">
@@ -84323,7 +84320,7 @@
         <v>6</v>
       </c>
       <c r="B1148" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L1148">
         <v>3</v>
@@ -84365,10 +84362,10 @@
         <v>529</v>
       </c>
       <c r="Z1148" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AA1148" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="1149" spans="1:27" x14ac:dyDescent="0.35">
@@ -84376,7 +84373,7 @@
         <v>4</v>
       </c>
       <c r="B1149" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L1149">
         <v>11</v>
@@ -84415,7 +84412,7 @@
         <v>520</v>
       </c>
       <c r="Y1149" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1150" spans="1:27" x14ac:dyDescent="0.35">
@@ -84423,7 +84420,7 @@
         <v>5</v>
       </c>
       <c r="B1150" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L1150">
         <v>11</v>
@@ -84462,10 +84459,10 @@
         <v>520</v>
       </c>
       <c r="Y1150" t="s">
+        <v>962</v>
+      </c>
+      <c r="Z1150" t="s">
         <v>963</v>
-      </c>
-      <c r="Z1150" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="1151" spans="1:27" x14ac:dyDescent="0.35">
@@ -84473,7 +84470,7 @@
         <v>6</v>
       </c>
       <c r="B1151" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L1151">
         <v>11</v>
@@ -84512,13 +84509,13 @@
         <v>520</v>
       </c>
       <c r="Y1151" t="s">
+        <v>962</v>
+      </c>
+      <c r="Z1151" t="s">
         <v>963</v>
       </c>
-      <c r="Z1151" t="s">
+      <c r="AA1151" t="s">
         <v>964</v>
-      </c>
-      <c r="AA1151" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="1152" spans="1:27" x14ac:dyDescent="0.35">
@@ -84526,7 +84523,7 @@
         <v>4</v>
       </c>
       <c r="B1152" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L1152">
         <v>3</v>
@@ -84565,7 +84562,7 @@
         <v>548</v>
       </c>
       <c r="Y1152" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="1153" spans="1:27" x14ac:dyDescent="0.35">
@@ -84573,7 +84570,7 @@
         <v>5</v>
       </c>
       <c r="B1153" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="L1153">
         <v>3</v>
@@ -84612,10 +84609,10 @@
         <v>548</v>
       </c>
       <c r="Y1153" t="s">
+        <v>965</v>
+      </c>
+      <c r="Z1153" t="s">
         <v>966</v>
-      </c>
-      <c r="Z1153" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="1154" spans="1:27" x14ac:dyDescent="0.35">
@@ -84623,7 +84620,7 @@
         <v>6</v>
       </c>
       <c r="B1154" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="L1154">
         <v>3</v>
@@ -84662,13 +84659,13 @@
         <v>548</v>
       </c>
       <c r="Y1154" t="s">
+        <v>965</v>
+      </c>
+      <c r="Z1154" t="s">
         <v>966</v>
       </c>
-      <c r="Z1154" t="s">
+      <c r="AA1154" t="s">
         <v>967</v>
-      </c>
-      <c r="AA1154" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="1155" spans="1:27" x14ac:dyDescent="0.35">
@@ -84676,7 +84673,7 @@
         <v>5</v>
       </c>
       <c r="B1155" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="L1155">
         <v>0</v>
@@ -84718,7 +84715,7 @@
         <v>549</v>
       </c>
       <c r="Z1155" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1156" spans="1:27" x14ac:dyDescent="0.35">
@@ -84726,7 +84723,7 @@
         <v>6</v>
       </c>
       <c r="B1156" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="L1156">
         <v>0</v>
@@ -84768,10 +84765,10 @@
         <v>549</v>
       </c>
       <c r="Z1156" t="s">
+        <v>968</v>
+      </c>
+      <c r="AA1156" t="s">
         <v>969</v>
-      </c>
-      <c r="AA1156" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="1157" spans="1:27" x14ac:dyDescent="0.35">
@@ -84779,7 +84776,7 @@
         <v>5</v>
       </c>
       <c r="B1157" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L1157">
         <v>0</v>
@@ -84821,7 +84818,7 @@
         <v>549</v>
       </c>
       <c r="Z1157" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1158" spans="1:27" x14ac:dyDescent="0.35">
@@ -84829,7 +84826,7 @@
         <v>6</v>
       </c>
       <c r="B1158" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="L1158">
         <v>0</v>
@@ -84871,10 +84868,10 @@
         <v>549</v>
       </c>
       <c r="Z1158" t="s">
+        <v>970</v>
+      </c>
+      <c r="AA1158" t="s">
         <v>971</v>
-      </c>
-      <c r="AA1158" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="1159" spans="1:27" x14ac:dyDescent="0.35">
@@ -84882,7 +84879,7 @@
         <v>5</v>
       </c>
       <c r="B1159" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="L1159">
         <v>0</v>
@@ -84924,7 +84921,7 @@
         <v>549</v>
       </c>
       <c r="Z1159" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1160" spans="1:27" x14ac:dyDescent="0.35">
@@ -84932,7 +84929,7 @@
         <v>6</v>
       </c>
       <c r="B1160" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="L1160">
         <v>0</v>
@@ -84974,10 +84971,10 @@
         <v>549</v>
       </c>
       <c r="Z1160" t="s">
+        <v>972</v>
+      </c>
+      <c r="AA1160" t="s">
         <v>973</v>
-      </c>
-      <c r="AA1160" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="1161" spans="1:27" x14ac:dyDescent="0.35">
@@ -84985,7 +84982,7 @@
         <v>6</v>
       </c>
       <c r="B1161" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="L1161">
         <v>0</v>
@@ -85030,7 +85027,7 @@
         <v>556</v>
       </c>
       <c r="AA1161" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1162" spans="1:27" x14ac:dyDescent="0.35">
@@ -85038,7 +85035,7 @@
         <v>6</v>
       </c>
       <c r="B1162" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L1162">
         <v>0</v>
@@ -85083,7 +85080,7 @@
         <v>556</v>
       </c>
       <c r="AA1162" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1163" spans="1:27" x14ac:dyDescent="0.35">
@@ -85091,7 +85088,7 @@
         <v>6</v>
       </c>
       <c r="B1163" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="L1163">
         <v>1</v>
@@ -85136,7 +85133,7 @@
         <v>556</v>
       </c>
       <c r="AA1163" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1164" spans="1:27" x14ac:dyDescent="0.35">
@@ -85144,7 +85141,7 @@
         <v>6</v>
       </c>
       <c r="B1164" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="L1164">
         <v>0</v>
@@ -85189,7 +85186,7 @@
         <v>556</v>
       </c>
       <c r="AA1164" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1165" spans="1:27" x14ac:dyDescent="0.35">
@@ -85197,7 +85194,7 @@
         <v>6</v>
       </c>
       <c r="B1165" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="L1165">
         <v>3</v>
@@ -85242,7 +85239,7 @@
         <v>556</v>
       </c>
       <c r="AA1165" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1166" spans="1:27" x14ac:dyDescent="0.35">
@@ -85250,7 +85247,7 @@
         <v>6</v>
       </c>
       <c r="B1166" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L1166">
         <v>6</v>
@@ -85295,7 +85292,7 @@
         <v>556</v>
       </c>
       <c r="AA1166" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1167" spans="1:27" x14ac:dyDescent="0.35">
@@ -85303,7 +85300,7 @@
         <v>6</v>
       </c>
       <c r="B1167" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L1167">
         <v>0</v>
@@ -85348,7 +85345,7 @@
         <v>556</v>
       </c>
       <c r="AA1167" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1168" spans="1:27" x14ac:dyDescent="0.35">
@@ -85356,7 +85353,7 @@
         <v>6</v>
       </c>
       <c r="B1168" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="L1168">
         <v>0</v>
@@ -85401,7 +85398,7 @@
         <v>556</v>
       </c>
       <c r="AA1168" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1169" spans="1:27" x14ac:dyDescent="0.35">
@@ -85409,7 +85406,7 @@
         <v>6</v>
       </c>
       <c r="B1169" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="L1169">
         <v>0</v>
@@ -85454,7 +85451,7 @@
         <v>556</v>
       </c>
       <c r="AA1169" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1170" spans="1:27" x14ac:dyDescent="0.35">
@@ -85462,7 +85459,7 @@
         <v>6</v>
       </c>
       <c r="B1170" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L1170">
         <v>0</v>
@@ -85507,7 +85504,7 @@
         <v>556</v>
       </c>
       <c r="AA1170" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1171" spans="1:27" x14ac:dyDescent="0.35">
@@ -85515,7 +85512,7 @@
         <v>5</v>
       </c>
       <c r="B1171" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="L1171">
         <v>0</v>
@@ -85557,7 +85554,7 @@
         <v>554</v>
       </c>
       <c r="Z1171" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1172" spans="1:27" x14ac:dyDescent="0.35">
@@ -85565,7 +85562,7 @@
         <v>6</v>
       </c>
       <c r="B1172" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="L1172">
         <v>0</v>
@@ -85607,10 +85604,10 @@
         <v>554</v>
       </c>
       <c r="Z1172" t="s">
+        <v>984</v>
+      </c>
+      <c r="AA1172" t="s">
         <v>985</v>
-      </c>
-      <c r="AA1172" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="1173" spans="1:27" x14ac:dyDescent="0.35">
@@ -85618,7 +85615,7 @@
         <v>6</v>
       </c>
       <c r="B1173" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="L1173">
         <v>0</v>
@@ -85663,7 +85660,7 @@
         <v>581</v>
       </c>
       <c r="AA1173" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1174" spans="1:27" x14ac:dyDescent="0.35">
@@ -85724,7 +85721,7 @@
         <v>5</v>
       </c>
       <c r="B1175" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="L1175">
         <v>3</v>
@@ -85766,7 +85763,7 @@
         <v>554</v>
       </c>
       <c r="Z1175" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1176" spans="1:27" x14ac:dyDescent="0.35">
@@ -85774,7 +85771,7 @@
         <v>6</v>
       </c>
       <c r="B1176" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L1176">
         <v>3</v>
@@ -85816,10 +85813,10 @@
         <v>554</v>
       </c>
       <c r="Z1176" t="s">
+        <v>987</v>
+      </c>
+      <c r="AA1176" t="s">
         <v>988</v>
-      </c>
-      <c r="AA1176" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="1177" spans="1:27" x14ac:dyDescent="0.35">
@@ -85827,7 +85824,7 @@
         <v>6</v>
       </c>
       <c r="B1177" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="L1177">
         <v>5</v>
@@ -85872,7 +85869,7 @@
         <v>586</v>
       </c>
       <c r="AA1177" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1178" spans="1:27" x14ac:dyDescent="0.35">
@@ -85880,7 +85877,7 @@
         <v>6</v>
       </c>
       <c r="B1178" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L1178">
         <v>5</v>
@@ -85925,7 +85922,7 @@
         <v>591</v>
       </c>
       <c r="AA1178" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1179" spans="1:27" x14ac:dyDescent="0.35">
@@ -85933,7 +85930,7 @@
         <v>6</v>
       </c>
       <c r="B1179" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L1179">
         <v>0</v>
@@ -85978,7 +85975,7 @@
         <v>591</v>
       </c>
       <c r="AA1179" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1180" spans="1:27" x14ac:dyDescent="0.35">
@@ -85986,7 +85983,7 @@
         <v>6</v>
       </c>
       <c r="B1180" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="L1180">
         <v>0</v>
@@ -86031,7 +86028,7 @@
         <v>591</v>
       </c>
       <c r="AA1180" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1181" spans="1:27" x14ac:dyDescent="0.35">
@@ -86039,7 +86036,7 @@
         <v>6</v>
       </c>
       <c r="B1181" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="L1181">
         <v>0</v>
@@ -86084,7 +86081,7 @@
         <v>591</v>
       </c>
       <c r="AA1181" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1182" spans="1:27" x14ac:dyDescent="0.35">
@@ -86092,7 +86089,7 @@
         <v>4</v>
       </c>
       <c r="B1182" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="L1182">
         <v>15</v>
@@ -86131,7 +86128,7 @@
         <v>548</v>
       </c>
       <c r="Y1182" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1183" spans="1:27" x14ac:dyDescent="0.35">
@@ -86139,7 +86136,7 @@
         <v>5</v>
       </c>
       <c r="B1183" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L1183">
         <v>15</v>
@@ -86178,10 +86175,10 @@
         <v>548</v>
       </c>
       <c r="Y1183" t="s">
+        <v>994</v>
+      </c>
+      <c r="Z1183" t="s">
         <v>995</v>
-      </c>
-      <c r="Z1183" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="1184" spans="1:27" x14ac:dyDescent="0.35">
@@ -86189,7 +86186,7 @@
         <v>6</v>
       </c>
       <c r="B1184" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="L1184">
         <v>15</v>
@@ -86228,13 +86225,13 @@
         <v>548</v>
       </c>
       <c r="Y1184" t="s">
+        <v>994</v>
+      </c>
+      <c r="Z1184" t="s">
         <v>995</v>
       </c>
-      <c r="Z1184" t="s">
+      <c r="AA1184" t="s">
         <v>996</v>
-      </c>
-      <c r="AA1184" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="1185" spans="1:27" x14ac:dyDescent="0.35">
@@ -86242,7 +86239,7 @@
         <v>4</v>
       </c>
       <c r="B1185" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="L1185">
         <v>0</v>
@@ -86281,7 +86278,7 @@
         <v>548</v>
       </c>
       <c r="Y1185" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1186" spans="1:27" x14ac:dyDescent="0.35">
@@ -86289,7 +86286,7 @@
         <v>5</v>
       </c>
       <c r="B1186" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="L1186">
         <v>0</v>
@@ -86328,10 +86325,10 @@
         <v>548</v>
       </c>
       <c r="Y1186" t="s">
+        <v>997</v>
+      </c>
+      <c r="Z1186" t="s">
         <v>998</v>
-      </c>
-      <c r="Z1186" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="1187" spans="1:27" x14ac:dyDescent="0.35">
@@ -86339,7 +86336,7 @@
         <v>6</v>
       </c>
       <c r="B1187" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="L1187">
         <v>0</v>
@@ -86378,13 +86375,13 @@
         <v>548</v>
       </c>
       <c r="Y1187" t="s">
+        <v>997</v>
+      </c>
+      <c r="Z1187" t="s">
         <v>998</v>
       </c>
-      <c r="Z1187" t="s">
+      <c r="AA1187" t="s">
         <v>999</v>
-      </c>
-      <c r="AA1187" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="1188" spans="1:27" x14ac:dyDescent="0.35">
@@ -86392,7 +86389,7 @@
         <v>6</v>
       </c>
       <c r="B1188" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="L1188">
         <v>0</v>
@@ -86437,7 +86434,7 @@
         <v>600</v>
       </c>
       <c r="AA1188" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1189" spans="1:27" x14ac:dyDescent="0.35">
@@ -86445,7 +86442,7 @@
         <v>6</v>
       </c>
       <c r="B1189" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L1189">
         <v>24</v>
@@ -86490,7 +86487,7 @@
         <v>603</v>
       </c>
       <c r="AA1189" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1190" spans="1:27" x14ac:dyDescent="0.35">
@@ -86498,7 +86495,7 @@
         <v>6</v>
       </c>
       <c r="B1190" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="L1190">
         <v>3</v>
@@ -86543,7 +86540,7 @@
         <v>603</v>
       </c>
       <c r="AA1190" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1191" spans="1:27" x14ac:dyDescent="0.35">
@@ -86551,7 +86548,7 @@
         <v>6</v>
       </c>
       <c r="B1191" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="L1191">
         <v>0</v>
@@ -86596,7 +86593,7 @@
         <v>603</v>
       </c>
       <c r="AA1191" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1192" spans="1:27" x14ac:dyDescent="0.35">
@@ -86604,7 +86601,7 @@
         <v>6</v>
       </c>
       <c r="B1192" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="L1192">
         <v>0</v>
@@ -86649,7 +86646,7 @@
         <v>603</v>
       </c>
       <c r="AA1192" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1193" spans="1:27" x14ac:dyDescent="0.35">
@@ -86657,7 +86654,7 @@
         <v>6</v>
       </c>
       <c r="B1193" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="L1193">
         <v>0</v>
@@ -86702,7 +86699,7 @@
         <v>603</v>
       </c>
       <c r="AA1193" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1194" spans="1:27" x14ac:dyDescent="0.35">
@@ -86710,7 +86707,7 @@
         <v>5</v>
       </c>
       <c r="B1194" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="L1194">
         <v>0</v>
@@ -86752,7 +86749,7 @@
         <v>619</v>
       </c>
       <c r="Z1194" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1195" spans="1:27" x14ac:dyDescent="0.35">
@@ -86760,7 +86757,7 @@
         <v>6</v>
       </c>
       <c r="B1195" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="L1195">
         <v>0</v>
@@ -86802,10 +86799,10 @@
         <v>619</v>
       </c>
       <c r="Z1195" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA1195" t="s">
         <v>1007</v>
-      </c>
-      <c r="AA1195" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="1196" spans="1:27" x14ac:dyDescent="0.35">
@@ -86813,7 +86810,7 @@
         <v>5</v>
       </c>
       <c r="B1196" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="L1196">
         <v>3</v>
@@ -86855,7 +86852,7 @@
         <v>619</v>
       </c>
       <c r="Z1196" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1197" spans="1:27" x14ac:dyDescent="0.35">
@@ -86863,7 +86860,7 @@
         <v>6</v>
       </c>
       <c r="B1197" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="L1197">
         <v>3</v>
@@ -86905,10 +86902,10 @@
         <v>619</v>
       </c>
       <c r="Z1197" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AA1197" t="s">
         <v>1009</v>
-      </c>
-      <c r="AA1197" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="1198" spans="1:27" x14ac:dyDescent="0.35">
@@ -86916,7 +86913,7 @@
         <v>6</v>
       </c>
       <c r="B1198" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="L1198">
         <v>35</v>
@@ -86961,7 +86958,7 @@
         <v>625</v>
       </c>
       <c r="AA1198" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1199" spans="1:27" x14ac:dyDescent="0.35">
@@ -86969,7 +86966,7 @@
         <v>6</v>
       </c>
       <c r="B1199" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="L1199">
         <v>0</v>
@@ -87014,7 +87011,7 @@
         <v>625</v>
       </c>
       <c r="AA1199" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1200" spans="1:27" x14ac:dyDescent="0.35">
@@ -87022,7 +87019,7 @@
         <v>6</v>
       </c>
       <c r="B1200" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="L1200">
         <v>35</v>
@@ -87067,7 +87064,7 @@
         <v>637</v>
       </c>
       <c r="AA1200" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1201" spans="1:27" x14ac:dyDescent="0.35">
@@ -87075,7 +87072,7 @@
         <v>6</v>
       </c>
       <c r="B1201" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="L1201">
         <v>0</v>
@@ -87120,7 +87117,7 @@
         <v>646</v>
       </c>
       <c r="AA1201" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1202" spans="1:27" x14ac:dyDescent="0.35">
@@ -87128,7 +87125,7 @@
         <v>6</v>
       </c>
       <c r="B1202" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L1202">
         <v>4</v>
@@ -87173,7 +87170,7 @@
         <v>648</v>
       </c>
       <c r="AA1202" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1203" spans="1:27" x14ac:dyDescent="0.35">
@@ -87181,7 +87178,7 @@
         <v>6</v>
       </c>
       <c r="B1203" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="L1203">
         <v>0</v>
@@ -87226,7 +87223,7 @@
         <v>648</v>
       </c>
       <c r="AA1203" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1204" spans="1:27" x14ac:dyDescent="0.35">
@@ -87234,7 +87231,7 @@
         <v>6</v>
       </c>
       <c r="B1204" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L1204">
         <v>0</v>
@@ -87279,7 +87276,7 @@
         <v>648</v>
       </c>
       <c r="AA1204" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1205" spans="1:27" x14ac:dyDescent="0.35">
@@ -87287,7 +87284,7 @@
         <v>6</v>
       </c>
       <c r="B1205" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L1205">
         <v>0</v>
@@ -87332,7 +87329,7 @@
         <v>648</v>
       </c>
       <c r="AA1205" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1206" spans="1:27" x14ac:dyDescent="0.35">
@@ -87340,7 +87337,7 @@
         <v>3</v>
       </c>
       <c r="B1206" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="L1206">
         <v>0</v>
@@ -87376,7 +87373,7 @@
         <v>655</v>
       </c>
       <c r="X1206" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1207" spans="1:27" x14ac:dyDescent="0.35">
@@ -87384,7 +87381,7 @@
         <v>4</v>
       </c>
       <c r="B1207" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="L1207">
         <v>0</v>
@@ -87420,10 +87417,10 @@
         <v>655</v>
       </c>
       <c r="X1207" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Y1207" t="s">
         <v>1019</v>
-      </c>
-      <c r="Y1207" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="1208" spans="1:27" x14ac:dyDescent="0.35">
@@ -87431,7 +87428,7 @@
         <v>5</v>
       </c>
       <c r="B1208" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L1208">
         <v>0</v>
@@ -87467,13 +87464,13 @@
         <v>655</v>
       </c>
       <c r="X1208" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Y1208" t="s">
         <v>1019</v>
       </c>
-      <c r="Y1208" t="s">
+      <c r="Z1208" t="s">
         <v>1020</v>
-      </c>
-      <c r="Z1208" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="1209" spans="1:27" x14ac:dyDescent="0.35">
@@ -87481,7 +87478,7 @@
         <v>6</v>
       </c>
       <c r="B1209" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L1209">
         <v>0</v>
@@ -87517,16 +87514,16 @@
         <v>655</v>
       </c>
       <c r="X1209" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Y1209" t="s">
         <v>1019</v>
       </c>
-      <c r="Y1209" t="s">
+      <c r="Z1209" t="s">
         <v>1020</v>
       </c>
-      <c r="Z1209" t="s">
+      <c r="AA1209" t="s">
         <v>1021</v>
-      </c>
-      <c r="AA1209" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="1210" spans="1:27" x14ac:dyDescent="0.35">
@@ -87534,7 +87531,7 @@
         <v>4</v>
       </c>
       <c r="B1210" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="L1210">
         <v>3</v>
@@ -87573,7 +87570,7 @@
         <v>661</v>
       </c>
       <c r="Y1210" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1211" spans="1:27" x14ac:dyDescent="0.35">
@@ -87581,7 +87578,7 @@
         <v>5</v>
       </c>
       <c r="B1211" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="L1211">
         <v>3</v>
@@ -87620,10 +87617,10 @@
         <v>661</v>
       </c>
       <c r="Y1211" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Z1211" t="s">
         <v>1023</v>
-      </c>
-      <c r="Z1211" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="1212" spans="1:27" x14ac:dyDescent="0.35">
@@ -87631,7 +87628,7 @@
         <v>6</v>
       </c>
       <c r="B1212" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="L1212">
         <v>3</v>
@@ -87670,13 +87667,13 @@
         <v>661</v>
       </c>
       <c r="Y1212" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Z1212" t="s">
         <v>1023</v>
       </c>
-      <c r="Z1212" t="s">
+      <c r="AA1212" t="s">
         <v>1024</v>
-      </c>
-      <c r="AA1212" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="1213" spans="1:27" x14ac:dyDescent="0.35">
@@ -87684,7 +87681,7 @@
         <v>4</v>
       </c>
       <c r="B1213" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="L1213">
         <v>0</v>
@@ -87723,7 +87720,7 @@
         <v>667</v>
       </c>
       <c r="Y1213" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1214" spans="1:27" x14ac:dyDescent="0.35">
@@ -87731,7 +87728,7 @@
         <v>5</v>
       </c>
       <c r="B1214" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="L1214">
         <v>0</v>
@@ -87770,10 +87767,10 @@
         <v>667</v>
       </c>
       <c r="Y1214" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Z1214" t="s">
         <v>1026</v>
-      </c>
-      <c r="Z1214" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="1215" spans="1:27" x14ac:dyDescent="0.35">
@@ -87781,7 +87778,7 @@
         <v>6</v>
       </c>
       <c r="B1215" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="L1215">
         <v>0</v>
@@ -87820,13 +87817,13 @@
         <v>667</v>
       </c>
       <c r="Y1215" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Z1215" t="s">
         <v>1026</v>
       </c>
-      <c r="Z1215" t="s">
+      <c r="AA1215" t="s">
         <v>1027</v>
-      </c>
-      <c r="AA1215" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="1216" spans="1:27" x14ac:dyDescent="0.35">
@@ -87834,7 +87831,7 @@
         <v>6</v>
       </c>
       <c r="B1216" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="L1216">
         <v>0</v>
@@ -87879,7 +87876,7 @@
         <v>675</v>
       </c>
       <c r="AA1216" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
